--- a/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>WEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>134500</v>
+        <v>296400</v>
       </c>
       <c r="E8" s="3">
-        <v>141900</v>
+        <v>131200</v>
       </c>
       <c r="F8" s="3">
-        <v>149200</v>
+        <v>138400</v>
       </c>
       <c r="G8" s="3">
-        <v>154800</v>
+        <v>145600</v>
       </c>
       <c r="H8" s="3">
-        <v>282900</v>
+        <v>151000</v>
       </c>
       <c r="I8" s="3">
-        <v>113300</v>
+        <v>275900</v>
       </c>
       <c r="J8" s="3">
+        <v>110500</v>
+      </c>
+      <c r="K8" s="3">
         <v>121900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>113200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>95900</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>50200</v>
+        <v>201400</v>
       </c>
       <c r="E9" s="3">
-        <v>59600</v>
+        <v>49000</v>
       </c>
       <c r="F9" s="3">
-        <v>65200</v>
+        <v>58100</v>
       </c>
       <c r="G9" s="3">
-        <v>66700</v>
+        <v>63600</v>
       </c>
       <c r="H9" s="3">
-        <v>142700</v>
+        <v>65100</v>
       </c>
       <c r="I9" s="3">
-        <v>66800</v>
+        <v>139200</v>
       </c>
       <c r="J9" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K9" s="3">
         <v>69300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>71400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>56900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>84300</v>
+        <v>94900</v>
       </c>
       <c r="E10" s="3">
-        <v>82300</v>
+        <v>82200</v>
       </c>
       <c r="F10" s="3">
-        <v>84000</v>
+        <v>80200</v>
       </c>
       <c r="G10" s="3">
-        <v>88000</v>
+        <v>81900</v>
       </c>
       <c r="H10" s="3">
-        <v>140200</v>
+        <v>85900</v>
       </c>
       <c r="I10" s="3">
-        <v>46500</v>
+        <v>136800</v>
       </c>
       <c r="J10" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K10" s="3">
         <v>52700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>48300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4300</v>
+        <v>11400</v>
       </c>
       <c r="E12" s="3">
-        <v>6300</v>
+        <v>4200</v>
       </c>
       <c r="F12" s="3">
-        <v>5400</v>
+        <v>6100</v>
       </c>
       <c r="G12" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="H12" s="3">
-        <v>9600</v>
+        <v>4800</v>
       </c>
       <c r="I12" s="3">
-        <v>4800</v>
+        <v>9400</v>
       </c>
       <c r="J12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,29 +947,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>2200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>121900</v>
+        <v>267300</v>
       </c>
       <c r="E17" s="3">
-        <v>123900</v>
+        <v>118900</v>
       </c>
       <c r="F17" s="3">
-        <v>143200</v>
+        <v>120900</v>
       </c>
       <c r="G17" s="3">
-        <v>124700</v>
+        <v>139700</v>
       </c>
       <c r="H17" s="3">
-        <v>226800</v>
+        <v>121600</v>
       </c>
       <c r="I17" s="3">
-        <v>88900</v>
+        <v>221200</v>
       </c>
       <c r="J17" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K17" s="3">
         <v>112100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>94200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>83200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>74200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12600</v>
+        <v>29100</v>
       </c>
       <c r="E18" s="3">
-        <v>17900</v>
+        <v>12300</v>
       </c>
       <c r="F18" s="3">
-        <v>6000</v>
+        <v>17500</v>
       </c>
       <c r="G18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>29400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>24900</v>
+      </c>
+      <c r="M18" s="3">
         <v>30100</v>
       </c>
-      <c r="H18" s="3">
-        <v>56100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>24400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>24900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>30100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1144,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>4700</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>3200</v>
+        <v>4600</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="3">
-        <v>8100</v>
+        <v>6600</v>
       </c>
       <c r="H20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1166,29 +1203,32 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>60500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>59000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>14300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>32800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>17300</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>21100</v>
+        <v>16800</v>
       </c>
       <c r="F23" s="3">
-        <v>12700</v>
+        <v>20600</v>
       </c>
       <c r="G23" s="3">
-        <v>38200</v>
+        <v>12400</v>
       </c>
       <c r="H23" s="3">
-        <v>58700</v>
+        <v>37300</v>
       </c>
       <c r="I23" s="3">
-        <v>25100</v>
+        <v>57300</v>
       </c>
       <c r="J23" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K23" s="3">
         <v>12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>31300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
-        <v>5500</v>
-      </c>
       <c r="F24" s="3">
-        <v>-3100</v>
+        <v>5300</v>
       </c>
       <c r="G24" s="3">
-        <v>11400</v>
+        <v>-3000</v>
       </c>
       <c r="H24" s="3">
-        <v>14600</v>
+        <v>11100</v>
       </c>
       <c r="I24" s="3">
-        <v>7300</v>
+        <v>14300</v>
       </c>
       <c r="J24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K24" s="3">
         <v>4300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,34 +1388,37 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>15300</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="F26" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="G26" s="3">
-        <v>26900</v>
+        <v>15400</v>
       </c>
       <c r="H26" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>26200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>43000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
+      <c r="K26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1377,34 +1429,37 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F27" s="3">
         <v>14800</v>
       </c>
-      <c r="E27" s="3">
-        <v>15100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-8100</v>
-      </c>
       <c r="G27" s="3">
-        <v>26500</v>
+        <v>-7900</v>
       </c>
       <c r="H27" s="3">
-        <v>61400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>25900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>59900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,72 +1634,78 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-4700</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-3200</v>
+        <v>-4600</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-3100</v>
       </c>
       <c r="G32" s="3">
-        <v>-8100</v>
+        <v>-6600</v>
       </c>
       <c r="H32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F33" s="3">
         <v>14800</v>
       </c>
-      <c r="E33" s="3">
-        <v>15100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-8100</v>
-      </c>
       <c r="G33" s="3">
-        <v>26500</v>
+        <v>-7900</v>
       </c>
       <c r="H33" s="3">
-        <v>61400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>25900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>59900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
+      <c r="K33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,34 +1757,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F35" s="3">
         <v>14800</v>
       </c>
-      <c r="E35" s="3">
-        <v>15100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-8100</v>
-      </c>
       <c r="G35" s="3">
-        <v>26500</v>
+        <v>-7900</v>
       </c>
       <c r="H35" s="3">
-        <v>61400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>25900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>59900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
+      <c r="K35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,28 +1880,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>123800</v>
+        <v>150500</v>
       </c>
       <c r="E41" s="3">
-        <v>211300</v>
+        <v>120800</v>
       </c>
       <c r="F41" s="3">
-        <v>249900</v>
+        <v>206100</v>
       </c>
       <c r="G41" s="3">
-        <v>244400</v>
+        <v>243800</v>
       </c>
       <c r="H41" s="3">
-        <v>261600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>238400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>255200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1832,29 +1919,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>48200</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>32000</v>
+        <v>47100</v>
       </c>
       <c r="F42" s="3">
+        <v>31200</v>
+      </c>
+      <c r="G42" s="3">
         <v>600</v>
       </c>
-      <c r="G42" s="3">
-        <v>8300</v>
-      </c>
       <c r="H42" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,28 +1960,31 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>366700</v>
+        <v>215800</v>
       </c>
       <c r="E43" s="3">
-        <v>303800</v>
+        <v>357700</v>
       </c>
       <c r="F43" s="3">
-        <v>228000</v>
+        <v>296300</v>
       </c>
       <c r="G43" s="3">
-        <v>248700</v>
+        <v>222400</v>
       </c>
       <c r="H43" s="3">
-        <v>297900</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>242600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>290600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,28 +2042,31 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>196400</v>
+        <v>221400</v>
       </c>
       <c r="E45" s="3">
-        <v>189700</v>
+        <v>191600</v>
       </c>
       <c r="F45" s="3">
-        <v>300600</v>
+        <v>185000</v>
       </c>
       <c r="G45" s="3">
-        <v>243800</v>
+        <v>293200</v>
       </c>
       <c r="H45" s="3">
-        <v>177100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>237800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>172800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1984,28 +2083,31 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>735100</v>
+        <v>587800</v>
       </c>
       <c r="E46" s="3">
-        <v>736700</v>
+        <v>717100</v>
       </c>
       <c r="F46" s="3">
-        <v>779100</v>
+        <v>718600</v>
       </c>
       <c r="G46" s="3">
-        <v>745200</v>
+        <v>760000</v>
       </c>
       <c r="H46" s="3">
-        <v>737100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>726900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>719000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2022,28 +2124,31 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81700</v>
+        <v>8800</v>
       </c>
       <c r="E47" s="3">
-        <v>112200</v>
+        <v>79700</v>
       </c>
       <c r="F47" s="3">
-        <v>62400</v>
+        <v>109400</v>
       </c>
       <c r="G47" s="3">
-        <v>70900</v>
+        <v>60900</v>
       </c>
       <c r="H47" s="3">
-        <v>72900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>69100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>71100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2060,28 +2165,31 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10600</v>
+        <v>8400</v>
       </c>
       <c r="E48" s="3">
-        <v>11700</v>
+        <v>10400</v>
       </c>
       <c r="F48" s="3">
-        <v>12700</v>
+        <v>11400</v>
       </c>
       <c r="G48" s="3">
-        <v>14300</v>
+        <v>12400</v>
       </c>
       <c r="H48" s="3">
-        <v>14900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>14500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2118,8 +2229,8 @@
       <c r="H49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,28 +2329,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61600</v>
+        <v>97800</v>
       </c>
       <c r="E52" s="3">
-        <v>50400</v>
+        <v>60100</v>
       </c>
       <c r="F52" s="3">
-        <v>51200</v>
+        <v>49100</v>
       </c>
       <c r="G52" s="3">
-        <v>33300</v>
+        <v>49900</v>
       </c>
       <c r="H52" s="3">
-        <v>27400</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>32400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>26700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,28 +2411,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>889900</v>
+        <v>703600</v>
       </c>
       <c r="E54" s="3">
-        <v>911800</v>
+        <v>868000</v>
       </c>
       <c r="F54" s="3">
-        <v>906300</v>
+        <v>889400</v>
       </c>
       <c r="G54" s="3">
-        <v>864500</v>
+        <v>884100</v>
       </c>
       <c r="H54" s="3">
-        <v>853100</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>843300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>832100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,28 +2527,31 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>65500</v>
+        <v>40500</v>
       </c>
       <c r="E58" s="3">
-        <v>72400</v>
+        <v>63900</v>
       </c>
       <c r="F58" s="3">
-        <v>144200</v>
+        <v>70600</v>
       </c>
       <c r="G58" s="3">
-        <v>189200</v>
+        <v>140700</v>
       </c>
       <c r="H58" s="3">
-        <v>221200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>184500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>215800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2434,28 +2568,31 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>255000</v>
+        <v>309400</v>
       </c>
       <c r="E59" s="3">
-        <v>255600</v>
+        <v>248700</v>
       </c>
       <c r="F59" s="3">
-        <v>375700</v>
+        <v>249400</v>
       </c>
       <c r="G59" s="3">
-        <v>345100</v>
+        <v>366500</v>
       </c>
       <c r="H59" s="3">
-        <v>329600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>336700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>321600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2472,28 +2609,31 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>320500</v>
+        <v>349800</v>
       </c>
       <c r="E60" s="3">
-        <v>328000</v>
+        <v>312700</v>
       </c>
       <c r="F60" s="3">
-        <v>519900</v>
+        <v>320000</v>
       </c>
       <c r="G60" s="3">
-        <v>534300</v>
+        <v>507200</v>
       </c>
       <c r="H60" s="3">
-        <v>550800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>521200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>537300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2510,28 +2650,31 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32000</v>
+        <v>7200</v>
       </c>
       <c r="E61" s="3">
-        <v>61100</v>
+        <v>31200</v>
       </c>
       <c r="F61" s="3">
-        <v>64600</v>
+        <v>59600</v>
       </c>
       <c r="G61" s="3">
-        <v>74000</v>
+        <v>63000</v>
       </c>
       <c r="H61" s="3">
-        <v>77000</v>
+        <v>72200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>75100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2548,28 +2691,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39400</v>
+        <v>27800</v>
       </c>
       <c r="E62" s="3">
-        <v>43100</v>
+        <v>38500</v>
       </c>
       <c r="F62" s="3">
-        <v>3700</v>
+        <v>42100</v>
       </c>
       <c r="G62" s="3">
-        <v>13200</v>
+        <v>3600</v>
       </c>
       <c r="H62" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>8800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,28 +2855,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>392700</v>
+        <v>385600</v>
       </c>
       <c r="E66" s="3">
-        <v>433500</v>
+        <v>383100</v>
       </c>
       <c r="F66" s="3">
-        <v>589400</v>
+        <v>422900</v>
       </c>
       <c r="G66" s="3">
-        <v>622500</v>
+        <v>574900</v>
       </c>
       <c r="H66" s="3">
-        <v>637600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>607200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>621900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>38600</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>38600</v>
+        <v>37600</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,28 +3077,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>322600</v>
+        <v>145300</v>
       </c>
       <c r="E72" s="3">
-        <v>307800</v>
+        <v>314700</v>
       </c>
       <c r="F72" s="3">
-        <v>149300</v>
+        <v>300200</v>
       </c>
       <c r="G72" s="3">
-        <v>133700</v>
+        <v>145600</v>
       </c>
       <c r="H72" s="3">
-        <v>107200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>130400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>104500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,28 +3241,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>497200</v>
+        <v>317900</v>
       </c>
       <c r="E76" s="3">
-        <v>478300</v>
+        <v>485000</v>
       </c>
       <c r="F76" s="3">
-        <v>316900</v>
+        <v>466500</v>
       </c>
       <c r="G76" s="3">
-        <v>203400</v>
+        <v>309100</v>
       </c>
       <c r="H76" s="3">
-        <v>176900</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>198400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>172600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,77 +3323,83 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F81" s="3">
         <v>14800</v>
       </c>
-      <c r="E81" s="3">
-        <v>15100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-8100</v>
-      </c>
       <c r="G81" s="3">
-        <v>26500</v>
+        <v>-7900</v>
       </c>
       <c r="H81" s="3">
-        <v>61400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>25900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>59900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
+      <c r="K81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4158,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>WEI</t>
   </si>
@@ -734,25 +734,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>296400</v>
+        <v>497200</v>
       </c>
       <c r="E8" s="3">
-        <v>131200</v>
+        <v>136200</v>
       </c>
       <c r="F8" s="3">
-        <v>138400</v>
+        <v>143600</v>
       </c>
       <c r="G8" s="3">
-        <v>145600</v>
+        <v>151000</v>
       </c>
       <c r="H8" s="3">
-        <v>151000</v>
+        <v>156700</v>
       </c>
       <c r="I8" s="3">
-        <v>275900</v>
+        <v>286300</v>
       </c>
       <c r="J8" s="3">
-        <v>110500</v>
+        <v>114700</v>
       </c>
       <c r="K8" s="3">
         <v>121900</v>
@@ -775,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>201400</v>
+        <v>209000</v>
       </c>
       <c r="E9" s="3">
-        <v>49000</v>
+        <v>50800</v>
       </c>
       <c r="F9" s="3">
-        <v>58100</v>
+        <v>60300</v>
       </c>
       <c r="G9" s="3">
-        <v>63600</v>
+        <v>66000</v>
       </c>
       <c r="H9" s="3">
-        <v>65100</v>
+        <v>67500</v>
       </c>
       <c r="I9" s="3">
-        <v>139200</v>
+        <v>144400</v>
       </c>
       <c r="J9" s="3">
-        <v>65100</v>
+        <v>67600</v>
       </c>
       <c r="K9" s="3">
         <v>69300</v>
@@ -816,25 +816,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>94900</v>
+        <v>288200</v>
       </c>
       <c r="E10" s="3">
-        <v>82200</v>
+        <v>85300</v>
       </c>
       <c r="F10" s="3">
-        <v>80200</v>
+        <v>83300</v>
       </c>
       <c r="G10" s="3">
-        <v>81900</v>
+        <v>85000</v>
       </c>
       <c r="H10" s="3">
-        <v>85900</v>
+        <v>89100</v>
       </c>
       <c r="I10" s="3">
-        <v>136800</v>
+        <v>141900</v>
       </c>
       <c r="J10" s="3">
-        <v>45400</v>
+        <v>47100</v>
       </c>
       <c r="K10" s="3">
         <v>52700</v>
@@ -874,25 +874,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="E12" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="F12" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G12" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="H12" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="I12" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="J12" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="K12" s="3">
         <v>5900</v>
@@ -956,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -971,7 +971,7 @@
         <v>700</v>
       </c>
       <c r="I14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1052,25 +1052,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>267300</v>
+        <v>467000</v>
       </c>
       <c r="E17" s="3">
-        <v>118900</v>
+        <v>123400</v>
       </c>
       <c r="F17" s="3">
-        <v>120900</v>
+        <v>125500</v>
       </c>
       <c r="G17" s="3">
-        <v>139700</v>
+        <v>145000</v>
       </c>
       <c r="H17" s="3">
-        <v>121600</v>
+        <v>126200</v>
       </c>
       <c r="I17" s="3">
-        <v>221200</v>
+        <v>229600</v>
       </c>
       <c r="J17" s="3">
-        <v>86700</v>
+        <v>90000</v>
       </c>
       <c r="K17" s="3">
         <v>112100</v>
@@ -1093,25 +1093,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29100</v>
+        <v>30200</v>
       </c>
       <c r="E18" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="F18" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="G18" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H18" s="3">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="I18" s="3">
-        <v>54700</v>
+        <v>56800</v>
       </c>
       <c r="J18" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="K18" s="3">
         <v>9800</v>
@@ -1150,26 +1150,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>23300</v>
       </c>
       <c r="E20" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="H20" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="I20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J20" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K20" s="3">
         <v>2700</v>
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>59000</v>
+        <v>61300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1273,26 +1273,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>53500</v>
       </c>
       <c r="E23" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="F23" s="3">
-        <v>20600</v>
+        <v>21400</v>
       </c>
       <c r="G23" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="H23" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="I23" s="3">
-        <v>57300</v>
+        <v>59500</v>
       </c>
       <c r="J23" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="K23" s="3">
         <v>12500</v>
@@ -1315,25 +1315,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14700</v>
+        <v>15300</v>
       </c>
       <c r="E24" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F24" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="G24" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="I24" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="J24" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="K24" s="3">
         <v>4300</v>
@@ -1396,23 +1396,23 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>38200</v>
       </c>
       <c r="E26" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="F26" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="G26" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="H26" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="I26" s="3">
-        <v>43000</v>
+        <v>44600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1437,23 +1437,23 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>36800</v>
       </c>
       <c r="E27" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="F27" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="G27" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="H27" s="3">
-        <v>25900</v>
+        <v>26800</v>
       </c>
       <c r="I27" s="3">
-        <v>59900</v>
+        <v>62200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1642,26 +1642,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-23300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="H32" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="I32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="J32" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K32" s="3">
         <v>-2700</v>
@@ -1683,23 +1683,23 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>36800</v>
       </c>
       <c r="E33" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="F33" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="G33" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="H33" s="3">
-        <v>25900</v>
+        <v>26800</v>
       </c>
       <c r="I33" s="3">
-        <v>59900</v>
+        <v>62200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1765,23 +1765,23 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>36800</v>
       </c>
       <c r="E35" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="F35" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="G35" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="H35" s="3">
-        <v>25900</v>
+        <v>26800</v>
       </c>
       <c r="I35" s="3">
-        <v>59900</v>
+        <v>62200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1887,22 +1887,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>150500</v>
+        <v>156200</v>
       </c>
       <c r="E41" s="3">
-        <v>120800</v>
+        <v>125300</v>
       </c>
       <c r="F41" s="3">
-        <v>206100</v>
+        <v>213900</v>
       </c>
       <c r="G41" s="3">
-        <v>243800</v>
+        <v>253000</v>
       </c>
       <c r="H41" s="3">
-        <v>238400</v>
+        <v>247400</v>
       </c>
       <c r="I41" s="3">
-        <v>255200</v>
+        <v>264800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>47100</v>
+        <v>48800</v>
       </c>
       <c r="F42" s="3">
-        <v>31200</v>
+        <v>32400</v>
       </c>
       <c r="G42" s="3">
         <v>600</v>
       </c>
       <c r="H42" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="I42" s="3">
         <v>500</v>
@@ -1969,22 +1969,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>215800</v>
+        <v>229200</v>
       </c>
       <c r="E43" s="3">
-        <v>357700</v>
+        <v>371100</v>
       </c>
       <c r="F43" s="3">
-        <v>296300</v>
+        <v>307500</v>
       </c>
       <c r="G43" s="3">
-        <v>222400</v>
+        <v>230800</v>
       </c>
       <c r="H43" s="3">
-        <v>242600</v>
+        <v>251800</v>
       </c>
       <c r="I43" s="3">
-        <v>290600</v>
+        <v>301500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2051,22 +2051,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>221400</v>
+        <v>224500</v>
       </c>
       <c r="E45" s="3">
-        <v>191600</v>
+        <v>198800</v>
       </c>
       <c r="F45" s="3">
-        <v>185000</v>
+        <v>192000</v>
       </c>
       <c r="G45" s="3">
-        <v>293200</v>
+        <v>304300</v>
       </c>
       <c r="H45" s="3">
-        <v>237800</v>
+        <v>246800</v>
       </c>
       <c r="I45" s="3">
-        <v>172800</v>
+        <v>179300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2092,22 +2092,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>587800</v>
+        <v>609900</v>
       </c>
       <c r="E46" s="3">
-        <v>717100</v>
+        <v>744100</v>
       </c>
       <c r="F46" s="3">
-        <v>718600</v>
+        <v>745700</v>
       </c>
       <c r="G46" s="3">
-        <v>760000</v>
+        <v>788600</v>
       </c>
       <c r="H46" s="3">
-        <v>726900</v>
+        <v>754300</v>
       </c>
       <c r="I46" s="3">
-        <v>719000</v>
+        <v>746100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2133,22 +2133,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="E47" s="3">
-        <v>79700</v>
+        <v>82700</v>
       </c>
       <c r="F47" s="3">
-        <v>109400</v>
+        <v>113500</v>
       </c>
       <c r="G47" s="3">
-        <v>60900</v>
+        <v>63200</v>
       </c>
       <c r="H47" s="3">
-        <v>69100</v>
+        <v>71700</v>
       </c>
       <c r="I47" s="3">
-        <v>71100</v>
+        <v>73700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2174,22 +2174,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="E48" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="F48" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="G48" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="H48" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="I48" s="3">
-        <v>14500</v>
+        <v>15100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2338,22 +2338,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>97800</v>
+        <v>101400</v>
       </c>
       <c r="E52" s="3">
-        <v>60100</v>
+        <v>62400</v>
       </c>
       <c r="F52" s="3">
-        <v>49100</v>
+        <v>51000</v>
       </c>
       <c r="G52" s="3">
-        <v>49900</v>
+        <v>51800</v>
       </c>
       <c r="H52" s="3">
-        <v>32400</v>
+        <v>33700</v>
       </c>
       <c r="I52" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2420,22 +2420,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>703600</v>
+        <v>730100</v>
       </c>
       <c r="E54" s="3">
-        <v>868000</v>
+        <v>900700</v>
       </c>
       <c r="F54" s="3">
-        <v>889400</v>
+        <v>922900</v>
       </c>
       <c r="G54" s="3">
-        <v>884100</v>
+        <v>917300</v>
       </c>
       <c r="H54" s="3">
-        <v>843300</v>
+        <v>875000</v>
       </c>
       <c r="I54" s="3">
-        <v>832100</v>
+        <v>863500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2536,22 +2536,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="E58" s="3">
-        <v>63900</v>
+        <v>66300</v>
       </c>
       <c r="F58" s="3">
-        <v>70600</v>
+        <v>73300</v>
       </c>
       <c r="G58" s="3">
-        <v>140700</v>
+        <v>146000</v>
       </c>
       <c r="H58" s="3">
-        <v>184500</v>
+        <v>191500</v>
       </c>
       <c r="I58" s="3">
-        <v>215800</v>
+        <v>223900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2577,22 +2577,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>309400</v>
+        <v>321000</v>
       </c>
       <c r="E59" s="3">
-        <v>248700</v>
+        <v>258100</v>
       </c>
       <c r="F59" s="3">
-        <v>249400</v>
+        <v>258800</v>
       </c>
       <c r="G59" s="3">
-        <v>366500</v>
+        <v>380300</v>
       </c>
       <c r="H59" s="3">
-        <v>336700</v>
+        <v>349300</v>
       </c>
       <c r="I59" s="3">
-        <v>321600</v>
+        <v>333700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2618,22 +2618,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>349800</v>
+        <v>363000</v>
       </c>
       <c r="E60" s="3">
-        <v>312700</v>
+        <v>324400</v>
       </c>
       <c r="F60" s="3">
-        <v>320000</v>
+        <v>332000</v>
       </c>
       <c r="G60" s="3">
-        <v>507200</v>
+        <v>526300</v>
       </c>
       <c r="H60" s="3">
-        <v>521200</v>
+        <v>540800</v>
       </c>
       <c r="I60" s="3">
-        <v>537300</v>
+        <v>557600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2659,22 +2659,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="E61" s="3">
-        <v>31200</v>
+        <v>32400</v>
       </c>
       <c r="F61" s="3">
-        <v>59600</v>
+        <v>61800</v>
       </c>
       <c r="G61" s="3">
-        <v>63000</v>
+        <v>65400</v>
       </c>
       <c r="H61" s="3">
-        <v>72200</v>
+        <v>74900</v>
       </c>
       <c r="I61" s="3">
-        <v>75100</v>
+        <v>78000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2700,22 +2700,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27800</v>
+        <v>28800</v>
       </c>
       <c r="E62" s="3">
-        <v>38500</v>
+        <v>39900</v>
       </c>
       <c r="F62" s="3">
-        <v>42100</v>
+        <v>43700</v>
       </c>
       <c r="G62" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H62" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="I62" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2864,22 +2864,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>385600</v>
+        <v>400200</v>
       </c>
       <c r="E66" s="3">
-        <v>383100</v>
+        <v>397500</v>
       </c>
       <c r="F66" s="3">
-        <v>422900</v>
+        <v>438800</v>
       </c>
       <c r="G66" s="3">
-        <v>574900</v>
+        <v>596600</v>
       </c>
       <c r="H66" s="3">
-        <v>607200</v>
+        <v>630100</v>
       </c>
       <c r="I66" s="3">
-        <v>621900</v>
+        <v>645400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3016,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>37600</v>
+        <v>39100</v>
       </c>
       <c r="I70" s="3">
-        <v>37600</v>
+        <v>39100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3086,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>145300</v>
+        <v>150800</v>
       </c>
       <c r="E72" s="3">
-        <v>314700</v>
+        <v>326500</v>
       </c>
       <c r="F72" s="3">
-        <v>300200</v>
+        <v>311500</v>
       </c>
       <c r="G72" s="3">
-        <v>145600</v>
+        <v>151100</v>
       </c>
       <c r="H72" s="3">
-        <v>130400</v>
+        <v>135300</v>
       </c>
       <c r="I72" s="3">
-        <v>104500</v>
+        <v>108500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3250,22 +3250,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>317900</v>
+        <v>329900</v>
       </c>
       <c r="E76" s="3">
-        <v>485000</v>
+        <v>503200</v>
       </c>
       <c r="F76" s="3">
-        <v>466500</v>
+        <v>484100</v>
       </c>
       <c r="G76" s="3">
-        <v>309100</v>
+        <v>320800</v>
       </c>
       <c r="H76" s="3">
-        <v>198400</v>
+        <v>205900</v>
       </c>
       <c r="I76" s="3">
-        <v>172600</v>
+        <v>179100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3377,23 +3377,23 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>36800</v>
       </c>
       <c r="E81" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="F81" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="G81" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="H81" s="3">
-        <v>25900</v>
+        <v>26800</v>
       </c>
       <c r="I81" s="3">
-        <v>59900</v>
+        <v>62200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
@@ -734,25 +734,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>497200</v>
+        <v>520800</v>
       </c>
       <c r="E8" s="3">
-        <v>136200</v>
+        <v>142600</v>
       </c>
       <c r="F8" s="3">
-        <v>143600</v>
+        <v>150400</v>
       </c>
       <c r="G8" s="3">
-        <v>151000</v>
+        <v>158200</v>
       </c>
       <c r="H8" s="3">
-        <v>156700</v>
+        <v>164100</v>
       </c>
       <c r="I8" s="3">
-        <v>286300</v>
+        <v>299900</v>
       </c>
       <c r="J8" s="3">
-        <v>114700</v>
+        <v>120100</v>
       </c>
       <c r="K8" s="3">
         <v>121900</v>
@@ -775,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>209000</v>
+        <v>218900</v>
       </c>
       <c r="E9" s="3">
-        <v>50800</v>
+        <v>53200</v>
       </c>
       <c r="F9" s="3">
-        <v>60300</v>
+        <v>63200</v>
       </c>
       <c r="G9" s="3">
-        <v>66000</v>
+        <v>69200</v>
       </c>
       <c r="H9" s="3">
-        <v>67500</v>
+        <v>70800</v>
       </c>
       <c r="I9" s="3">
-        <v>144400</v>
+        <v>151300</v>
       </c>
       <c r="J9" s="3">
-        <v>67600</v>
+        <v>70800</v>
       </c>
       <c r="K9" s="3">
         <v>69300</v>
@@ -816,25 +816,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>288200</v>
+        <v>301900</v>
       </c>
       <c r="E10" s="3">
-        <v>85300</v>
+        <v>89400</v>
       </c>
       <c r="F10" s="3">
-        <v>83300</v>
+        <v>87200</v>
       </c>
       <c r="G10" s="3">
-        <v>85000</v>
+        <v>89000</v>
       </c>
       <c r="H10" s="3">
-        <v>89100</v>
+        <v>93300</v>
       </c>
       <c r="I10" s="3">
-        <v>141900</v>
+        <v>148700</v>
       </c>
       <c r="J10" s="3">
-        <v>47100</v>
+        <v>49300</v>
       </c>
       <c r="K10" s="3">
         <v>52700</v>
@@ -874,25 +874,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="E12" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="F12" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="G12" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H12" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="I12" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="J12" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="K12" s="3">
         <v>5900</v>
@@ -956,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -965,10 +965,10 @@
         <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>900</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>700</v>
       </c>
       <c r="I14" s="3">
         <v>1500</v>
@@ -1052,25 +1052,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>467000</v>
+        <v>489200</v>
       </c>
       <c r="E17" s="3">
-        <v>123400</v>
+        <v>129300</v>
       </c>
       <c r="F17" s="3">
-        <v>125500</v>
+        <v>131400</v>
       </c>
       <c r="G17" s="3">
-        <v>145000</v>
+        <v>151900</v>
       </c>
       <c r="H17" s="3">
-        <v>126200</v>
+        <v>132200</v>
       </c>
       <c r="I17" s="3">
-        <v>229600</v>
+        <v>240500</v>
       </c>
       <c r="J17" s="3">
-        <v>90000</v>
+        <v>94200</v>
       </c>
       <c r="K17" s="3">
         <v>112100</v>
@@ -1093,25 +1093,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30200</v>
+        <v>31600</v>
       </c>
       <c r="E18" s="3">
-        <v>12700</v>
+        <v>13400</v>
       </c>
       <c r="F18" s="3">
-        <v>18100</v>
+        <v>19000</v>
       </c>
       <c r="G18" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H18" s="3">
-        <v>30500</v>
+        <v>31900</v>
       </c>
       <c r="I18" s="3">
-        <v>56800</v>
+        <v>59500</v>
       </c>
       <c r="J18" s="3">
-        <v>24700</v>
+        <v>25900</v>
       </c>
       <c r="K18" s="3">
         <v>9800</v>
@@ -1151,22 +1151,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23300</v>
+        <v>24400</v>
       </c>
       <c r="E20" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="G20" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="H20" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="I20" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J20" s="3">
         <v>800</v>
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>61300</v>
+        <v>64200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1274,25 +1274,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>53500</v>
+        <v>56100</v>
       </c>
       <c r="E23" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="F23" s="3">
-        <v>21400</v>
+        <v>22400</v>
       </c>
       <c r="G23" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="H23" s="3">
-        <v>38700</v>
+        <v>40500</v>
       </c>
       <c r="I23" s="3">
-        <v>59500</v>
+        <v>62300</v>
       </c>
       <c r="J23" s="3">
-        <v>25400</v>
+        <v>26700</v>
       </c>
       <c r="K23" s="3">
         <v>12500</v>
@@ -1315,25 +1315,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="E24" s="3">
         <v>2000</v>
       </c>
       <c r="F24" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="G24" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="H24" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="I24" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="J24" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="K24" s="3">
         <v>4300</v>
@@ -1397,22 +1397,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38200</v>
+        <v>40000</v>
       </c>
       <c r="E26" s="3">
-        <v>15500</v>
+        <v>16300</v>
       </c>
       <c r="F26" s="3">
-        <v>15800</v>
+        <v>16600</v>
       </c>
       <c r="G26" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="H26" s="3">
-        <v>27200</v>
+        <v>28500</v>
       </c>
       <c r="I26" s="3">
-        <v>44600</v>
+        <v>46800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1438,22 +1438,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>36800</v>
+        <v>38600</v>
       </c>
       <c r="E27" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="F27" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="G27" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="H27" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="I27" s="3">
-        <v>62200</v>
+        <v>65100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1643,22 +1643,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23300</v>
+        <v>-24400</v>
       </c>
       <c r="E32" s="3">
-        <v>-4700</v>
+        <v>-5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="G32" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="H32" s="3">
-        <v>-8200</v>
+        <v>-8600</v>
       </c>
       <c r="I32" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J32" s="3">
         <v>-800</v>
@@ -1684,22 +1684,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>36800</v>
+        <v>38600</v>
       </c>
       <c r="E33" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="F33" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="G33" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="H33" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="I33" s="3">
-        <v>62200</v>
+        <v>65100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1766,22 +1766,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>36800</v>
+        <v>38600</v>
       </c>
       <c r="E35" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="F35" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="G35" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="H35" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="I35" s="3">
-        <v>62200</v>
+        <v>65100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1887,22 +1887,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>156200</v>
+        <v>163600</v>
       </c>
       <c r="E41" s="3">
-        <v>125300</v>
+        <v>131300</v>
       </c>
       <c r="F41" s="3">
-        <v>213900</v>
+        <v>224000</v>
       </c>
       <c r="G41" s="3">
-        <v>253000</v>
+        <v>265000</v>
       </c>
       <c r="H41" s="3">
-        <v>247400</v>
+        <v>259200</v>
       </c>
       <c r="I41" s="3">
-        <v>264800</v>
+        <v>277400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>48800</v>
+        <v>51100</v>
       </c>
       <c r="F42" s="3">
-        <v>32400</v>
+        <v>33900</v>
       </c>
       <c r="G42" s="3">
         <v>600</v>
       </c>
       <c r="H42" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="I42" s="3">
         <v>500</v>
@@ -1969,22 +1969,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>229200</v>
+        <v>240100</v>
       </c>
       <c r="E43" s="3">
-        <v>371100</v>
+        <v>388700</v>
       </c>
       <c r="F43" s="3">
-        <v>307500</v>
+        <v>322000</v>
       </c>
       <c r="G43" s="3">
-        <v>230800</v>
+        <v>241800</v>
       </c>
       <c r="H43" s="3">
-        <v>251800</v>
+        <v>263700</v>
       </c>
       <c r="I43" s="3">
-        <v>301500</v>
+        <v>315800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2051,22 +2051,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>224500</v>
+        <v>235200</v>
       </c>
       <c r="E45" s="3">
-        <v>198800</v>
+        <v>208200</v>
       </c>
       <c r="F45" s="3">
-        <v>192000</v>
+        <v>201100</v>
       </c>
       <c r="G45" s="3">
-        <v>304300</v>
+        <v>318700</v>
       </c>
       <c r="H45" s="3">
-        <v>246800</v>
+        <v>258500</v>
       </c>
       <c r="I45" s="3">
-        <v>179300</v>
+        <v>187800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2092,22 +2092,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>609900</v>
+        <v>638800</v>
       </c>
       <c r="E46" s="3">
-        <v>744100</v>
+        <v>779400</v>
       </c>
       <c r="F46" s="3">
-        <v>745700</v>
+        <v>781100</v>
       </c>
       <c r="G46" s="3">
-        <v>788600</v>
+        <v>826100</v>
       </c>
       <c r="H46" s="3">
-        <v>754300</v>
+        <v>790100</v>
       </c>
       <c r="I46" s="3">
-        <v>746100</v>
+        <v>781500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2133,22 +2133,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="E47" s="3">
-        <v>82700</v>
+        <v>86600</v>
       </c>
       <c r="F47" s="3">
-        <v>113500</v>
+        <v>118900</v>
       </c>
       <c r="G47" s="3">
-        <v>63200</v>
+        <v>66200</v>
       </c>
       <c r="H47" s="3">
-        <v>71700</v>
+        <v>75100</v>
       </c>
       <c r="I47" s="3">
-        <v>73700</v>
+        <v>77200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2174,22 +2174,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="E48" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="F48" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="G48" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="H48" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="I48" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2215,22 +2215,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2338,22 +2338,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>101400</v>
+        <v>106300</v>
       </c>
       <c r="E52" s="3">
-        <v>62400</v>
+        <v>65300</v>
       </c>
       <c r="F52" s="3">
-        <v>51000</v>
+        <v>53400</v>
       </c>
       <c r="G52" s="3">
-        <v>51800</v>
+        <v>54300</v>
       </c>
       <c r="H52" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="I52" s="3">
-        <v>27700</v>
+        <v>29000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2420,22 +2420,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>730100</v>
+        <v>764700</v>
       </c>
       <c r="E54" s="3">
-        <v>900700</v>
+        <v>943400</v>
       </c>
       <c r="F54" s="3">
-        <v>922900</v>
+        <v>966700</v>
       </c>
       <c r="G54" s="3">
-        <v>917300</v>
+        <v>960900</v>
       </c>
       <c r="H54" s="3">
-        <v>875000</v>
+        <v>916500</v>
       </c>
       <c r="I54" s="3">
-        <v>863500</v>
+        <v>904400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2536,22 +2536,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42000</v>
+        <v>44000</v>
       </c>
       <c r="E58" s="3">
-        <v>66300</v>
+        <v>69500</v>
       </c>
       <c r="F58" s="3">
-        <v>73300</v>
+        <v>76700</v>
       </c>
       <c r="G58" s="3">
-        <v>146000</v>
+        <v>152900</v>
       </c>
       <c r="H58" s="3">
-        <v>191500</v>
+        <v>200600</v>
       </c>
       <c r="I58" s="3">
-        <v>223900</v>
+        <v>234500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2577,22 +2577,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>321000</v>
+        <v>336300</v>
       </c>
       <c r="E59" s="3">
-        <v>258100</v>
+        <v>270300</v>
       </c>
       <c r="F59" s="3">
-        <v>258800</v>
+        <v>271000</v>
       </c>
       <c r="G59" s="3">
-        <v>380300</v>
+        <v>398300</v>
       </c>
       <c r="H59" s="3">
-        <v>349300</v>
+        <v>365900</v>
       </c>
       <c r="I59" s="3">
-        <v>333700</v>
+        <v>349500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2618,22 +2618,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>363000</v>
+        <v>380200</v>
       </c>
       <c r="E60" s="3">
-        <v>324400</v>
+        <v>339800</v>
       </c>
       <c r="F60" s="3">
-        <v>332000</v>
+        <v>347800</v>
       </c>
       <c r="G60" s="3">
-        <v>526300</v>
+        <v>551200</v>
       </c>
       <c r="H60" s="3">
-        <v>540800</v>
+        <v>566500</v>
       </c>
       <c r="I60" s="3">
-        <v>557600</v>
+        <v>584000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2659,22 +2659,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="E61" s="3">
-        <v>32400</v>
+        <v>33900</v>
       </c>
       <c r="F61" s="3">
-        <v>61800</v>
+        <v>64800</v>
       </c>
       <c r="G61" s="3">
-        <v>65400</v>
+        <v>68500</v>
       </c>
       <c r="H61" s="3">
-        <v>74900</v>
+        <v>78400</v>
       </c>
       <c r="I61" s="3">
-        <v>78000</v>
+        <v>81700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2700,22 +2700,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="E62" s="3">
-        <v>39900</v>
+        <v>41800</v>
       </c>
       <c r="F62" s="3">
-        <v>43700</v>
+        <v>45700</v>
       </c>
       <c r="G62" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="H62" s="3">
-        <v>13300</v>
+        <v>14000</v>
       </c>
       <c r="I62" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2864,22 +2864,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400200</v>
+        <v>419200</v>
       </c>
       <c r="E66" s="3">
-        <v>397500</v>
+        <v>416300</v>
       </c>
       <c r="F66" s="3">
-        <v>438800</v>
+        <v>459600</v>
       </c>
       <c r="G66" s="3">
-        <v>596600</v>
+        <v>624900</v>
       </c>
       <c r="H66" s="3">
-        <v>630100</v>
+        <v>660000</v>
       </c>
       <c r="I66" s="3">
-        <v>645400</v>
+        <v>676000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3016,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>39100</v>
+        <v>40900</v>
       </c>
       <c r="I70" s="3">
-        <v>39100</v>
+        <v>40900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3086,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>150800</v>
+        <v>157900</v>
       </c>
       <c r="E72" s="3">
-        <v>326500</v>
+        <v>342000</v>
       </c>
       <c r="F72" s="3">
-        <v>311500</v>
+        <v>326300</v>
       </c>
       <c r="G72" s="3">
-        <v>151100</v>
+        <v>158300</v>
       </c>
       <c r="H72" s="3">
-        <v>135300</v>
+        <v>141700</v>
       </c>
       <c r="I72" s="3">
-        <v>108500</v>
+        <v>113600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3250,22 +3250,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>329900</v>
+        <v>345600</v>
       </c>
       <c r="E76" s="3">
-        <v>503200</v>
+        <v>527100</v>
       </c>
       <c r="F76" s="3">
-        <v>484100</v>
+        <v>507100</v>
       </c>
       <c r="G76" s="3">
-        <v>320800</v>
+        <v>336000</v>
       </c>
       <c r="H76" s="3">
-        <v>205900</v>
+        <v>215700</v>
       </c>
       <c r="I76" s="3">
-        <v>179100</v>
+        <v>187500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3378,22 +3378,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>36800</v>
+        <v>38600</v>
       </c>
       <c r="E81" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="F81" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="G81" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="H81" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="I81" s="3">
-        <v>62200</v>
+        <v>65100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>WEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,192 +667,218 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>520800</v>
+        <v>99200</v>
       </c>
       <c r="E8" s="3">
-        <v>142600</v>
+        <v>139400</v>
       </c>
       <c r="F8" s="3">
-        <v>150400</v>
+        <v>523100</v>
       </c>
       <c r="G8" s="3">
-        <v>158200</v>
+        <v>143200</v>
       </c>
       <c r="H8" s="3">
-        <v>164100</v>
+        <v>151100</v>
       </c>
       <c r="I8" s="3">
+        <v>158900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K8" s="3">
         <v>299900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>120100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>121900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>119100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>113200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>95900</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>218900</v>
+        <v>53400</v>
       </c>
       <c r="E9" s="3">
-        <v>53200</v>
+        <v>67000</v>
       </c>
       <c r="F9" s="3">
-        <v>63200</v>
+        <v>219900</v>
       </c>
       <c r="G9" s="3">
-        <v>69200</v>
+        <v>53500</v>
       </c>
       <c r="H9" s="3">
+        <v>63500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>69500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>151300</v>
+      </c>
+      <c r="L9" s="3">
         <v>70800</v>
       </c>
-      <c r="I9" s="3">
-        <v>151300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>70800</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>69300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>71400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>64900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>56900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>301900</v>
+        <v>45900</v>
       </c>
       <c r="E10" s="3">
+        <v>72300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>303200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>89800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>87600</v>
+      </c>
+      <c r="I10" s="3">
         <v>89400</v>
       </c>
-      <c r="F10" s="3">
-        <v>87200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>89000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>93300</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K10" s="3">
         <v>148700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>49300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>52700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>47700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>48300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>39000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +894,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12400</v>
+        <v>1600</v>
       </c>
       <c r="E12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G12" s="3">
         <v>4600</v>
       </c>
-      <c r="F12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5700</v>
-      </c>
       <c r="H12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J12" s="3">
         <v>5200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>10200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,35 +984,41 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1031,14 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1078,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1098,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>489200</v>
+        <v>105400</v>
       </c>
       <c r="E17" s="3">
-        <v>129300</v>
+        <v>195600</v>
       </c>
       <c r="F17" s="3">
-        <v>131400</v>
+        <v>491300</v>
       </c>
       <c r="G17" s="3">
-        <v>151900</v>
+        <v>129800</v>
       </c>
       <c r="H17" s="3">
-        <v>132200</v>
+        <v>132000</v>
       </c>
       <c r="I17" s="3">
+        <v>152500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>132700</v>
+      </c>
+      <c r="K17" s="3">
         <v>240500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>94200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>112100</v>
       </c>
       <c r="L17" s="3">
         <v>94200</v>
       </c>
       <c r="M17" s="3">
+        <v>112100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>94200</v>
+      </c>
+      <c r="O17" s="3">
         <v>83200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>74200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31600</v>
+        <v>-6100</v>
       </c>
       <c r="E18" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>31800</v>
+      </c>
+      <c r="G18" s="3">
         <v>13400</v>
       </c>
-      <c r="F18" s="3">
-        <v>19000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6300</v>
-      </c>
       <c r="H18" s="3">
-        <v>31900</v>
+        <v>19100</v>
       </c>
       <c r="I18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K18" s="3">
         <v>59500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>25900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>24900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>30100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>21700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,49 +1211,57 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24400</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J20" s="3">
         <v>8600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1207,28 +1281,34 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>64200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>14300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>32800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1348,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>56100</v>
+        <v>-8200</v>
       </c>
       <c r="E23" s="3">
-        <v>18300</v>
+        <v>-52600</v>
       </c>
       <c r="F23" s="3">
-        <v>22400</v>
+        <v>56300</v>
       </c>
       <c r="G23" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="I23" s="3">
         <v>13500</v>
       </c>
-      <c r="H23" s="3">
-        <v>40500</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K23" s="3">
         <v>62300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>26700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>31300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>32000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>22900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16000</v>
+        <v>26500</v>
       </c>
       <c r="E24" s="3">
-        <v>2000</v>
+        <v>21800</v>
       </c>
       <c r="F24" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H24" s="3">
         <v>5800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3300</v>
       </c>
-      <c r="H24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K24" s="3">
         <v>15500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>9200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,40 +1489,46 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>40000</v>
+        <v>-34700</v>
       </c>
       <c r="E26" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>40200</v>
+      </c>
+      <c r="G26" s="3">
         <v>16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>16600</v>
       </c>
-      <c r="G26" s="3">
-        <v>16700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>28500</v>
-      </c>
       <c r="I26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K26" s="3">
         <v>46800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1432,40 +1536,46 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38600</v>
+        <v>-34900</v>
       </c>
       <c r="E27" s="3">
-        <v>15700</v>
+        <v>-74000</v>
       </c>
       <c r="F27" s="3">
-        <v>16000</v>
+        <v>38700</v>
       </c>
       <c r="G27" s="3">
-        <v>-8500</v>
+        <v>15800</v>
       </c>
       <c r="H27" s="3">
-        <v>28100</v>
+        <v>16100</v>
       </c>
       <c r="I27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K27" s="3">
         <v>65100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1473,8 +1583,14 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1630,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1677,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1724,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,81 +1771,93 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24400</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-8600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38600</v>
+        <v>-34900</v>
       </c>
       <c r="E33" s="3">
-        <v>15700</v>
+        <v>-74000</v>
       </c>
       <c r="F33" s="3">
-        <v>16000</v>
+        <v>38700</v>
       </c>
       <c r="G33" s="3">
-        <v>-8500</v>
+        <v>15800</v>
       </c>
       <c r="H33" s="3">
-        <v>28100</v>
+        <v>16100</v>
       </c>
       <c r="I33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K33" s="3">
         <v>65100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -1719,8 +1865,14 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,40 +1912,46 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38600</v>
+        <v>-34900</v>
       </c>
       <c r="E35" s="3">
-        <v>15700</v>
+        <v>-74000</v>
       </c>
       <c r="F35" s="3">
-        <v>16000</v>
+        <v>38700</v>
       </c>
       <c r="G35" s="3">
-        <v>-8500</v>
+        <v>15800</v>
       </c>
       <c r="H35" s="3">
-        <v>28100</v>
+        <v>16100</v>
       </c>
       <c r="I35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K35" s="3">
         <v>65100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -1801,54 +1959,66 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2034,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +2053,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>163600</v>
+        <v>62600</v>
       </c>
       <c r="E41" s="3">
-        <v>131300</v>
+        <v>144500</v>
       </c>
       <c r="F41" s="3">
-        <v>224000</v>
+        <v>164300</v>
       </c>
       <c r="G41" s="3">
-        <v>265000</v>
+        <v>131800</v>
       </c>
       <c r="H41" s="3">
-        <v>259200</v>
+        <v>225000</v>
       </c>
       <c r="I41" s="3">
+        <v>266100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>260300</v>
+      </c>
+      <c r="K41" s="3">
         <v>277400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,35 +2096,41 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>51100</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>51400</v>
+      </c>
+      <c r="H42" s="3">
+        <v>34100</v>
+      </c>
+      <c r="I42" s="3">
         <v>600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>8800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,35 +2143,41 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>240100</v>
+        <v>114200</v>
       </c>
       <c r="E43" s="3">
-        <v>388700</v>
+        <v>176000</v>
       </c>
       <c r="F43" s="3">
-        <v>322000</v>
+        <v>241100</v>
       </c>
       <c r="G43" s="3">
-        <v>241800</v>
+        <v>390400</v>
       </c>
       <c r="H43" s="3">
-        <v>263700</v>
+        <v>323400</v>
       </c>
       <c r="I43" s="3">
+        <v>242800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>264900</v>
+      </c>
+      <c r="K43" s="3">
         <v>315800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2190,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,35 +2237,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>235200</v>
+        <v>157700</v>
       </c>
       <c r="E45" s="3">
-        <v>208200</v>
+        <v>161200</v>
       </c>
       <c r="F45" s="3">
-        <v>201100</v>
+        <v>236200</v>
       </c>
       <c r="G45" s="3">
-        <v>318700</v>
+        <v>209100</v>
       </c>
       <c r="H45" s="3">
-        <v>258500</v>
+        <v>202000</v>
       </c>
       <c r="I45" s="3">
+        <v>320100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>259600</v>
+      </c>
+      <c r="K45" s="3">
         <v>187800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,35 +2284,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>638800</v>
+        <v>334500</v>
       </c>
       <c r="E46" s="3">
-        <v>779400</v>
+        <v>481600</v>
       </c>
       <c r="F46" s="3">
-        <v>781100</v>
+        <v>641600</v>
       </c>
       <c r="G46" s="3">
-        <v>826100</v>
+        <v>782700</v>
       </c>
       <c r="H46" s="3">
-        <v>790100</v>
+        <v>784500</v>
       </c>
       <c r="I46" s="3">
+        <v>829600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>793500</v>
+      </c>
+      <c r="K46" s="3">
         <v>781500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,35 +2331,41 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9600</v>
+        <v>2100</v>
       </c>
       <c r="E47" s="3">
-        <v>86600</v>
+        <v>2900</v>
       </c>
       <c r="F47" s="3">
-        <v>118900</v>
+        <v>9700</v>
       </c>
       <c r="G47" s="3">
-        <v>66200</v>
+        <v>87000</v>
       </c>
       <c r="H47" s="3">
-        <v>75100</v>
+        <v>119400</v>
       </c>
       <c r="I47" s="3">
+        <v>66400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K47" s="3">
         <v>77200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2168,35 +2378,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F48" s="3">
         <v>9100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11300</v>
       </c>
-      <c r="F48" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>13500</v>
-      </c>
       <c r="H48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J48" s="3">
         <v>15200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>15800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,13 +2425,19 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>900</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
         <v>900</v>
@@ -2232,11 +2454,11 @@
       <c r="I49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>900</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2472,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2519,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,35 +2566,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>106300</v>
+        <v>64500</v>
       </c>
       <c r="E52" s="3">
-        <v>65300</v>
+        <v>94400</v>
       </c>
       <c r="F52" s="3">
-        <v>53400</v>
+        <v>106700</v>
       </c>
       <c r="G52" s="3">
-        <v>54300</v>
+        <v>65600</v>
       </c>
       <c r="H52" s="3">
-        <v>35300</v>
+        <v>53600</v>
       </c>
       <c r="I52" s="3">
+        <v>54500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K52" s="3">
         <v>29000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2613,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2660,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>764700</v>
+        <v>406800</v>
       </c>
       <c r="E54" s="3">
-        <v>943400</v>
+        <v>587200</v>
       </c>
       <c r="F54" s="3">
-        <v>966700</v>
+        <v>768000</v>
       </c>
       <c r="G54" s="3">
-        <v>960900</v>
+        <v>947500</v>
       </c>
       <c r="H54" s="3">
-        <v>916500</v>
+        <v>970900</v>
       </c>
       <c r="I54" s="3">
+        <v>965000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>920500</v>
+      </c>
+      <c r="K54" s="3">
         <v>904400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2707,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2730,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2749,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2530,35 +2792,41 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44000</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
-        <v>69500</v>
+        <v>22700</v>
       </c>
       <c r="F58" s="3">
-        <v>76700</v>
+        <v>44200</v>
       </c>
       <c r="G58" s="3">
-        <v>152900</v>
+        <v>69800</v>
       </c>
       <c r="H58" s="3">
-        <v>200600</v>
+        <v>77100</v>
       </c>
       <c r="I58" s="3">
+        <v>153600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>201400</v>
+      </c>
+      <c r="K58" s="3">
         <v>234500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,35 +2839,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>336300</v>
+        <v>157500</v>
       </c>
       <c r="E59" s="3">
-        <v>270300</v>
+        <v>274800</v>
       </c>
       <c r="F59" s="3">
-        <v>271000</v>
+        <v>337700</v>
       </c>
       <c r="G59" s="3">
-        <v>398300</v>
+        <v>271500</v>
       </c>
       <c r="H59" s="3">
-        <v>365900</v>
+        <v>272200</v>
       </c>
       <c r="I59" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>367500</v>
+      </c>
+      <c r="K59" s="3">
         <v>349500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,35 +2886,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>380200</v>
+        <v>164200</v>
       </c>
       <c r="E60" s="3">
-        <v>339800</v>
+        <v>297500</v>
       </c>
       <c r="F60" s="3">
-        <v>347800</v>
+        <v>381900</v>
       </c>
       <c r="G60" s="3">
-        <v>551200</v>
+        <v>341300</v>
       </c>
       <c r="H60" s="3">
-        <v>566500</v>
+        <v>349300</v>
       </c>
       <c r="I60" s="3">
+        <v>553600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>568900</v>
+      </c>
+      <c r="K60" s="3">
         <v>584000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,35 +2933,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>33900</v>
+        <v>900</v>
       </c>
       <c r="F61" s="3">
-        <v>64800</v>
+        <v>7900</v>
       </c>
       <c r="G61" s="3">
-        <v>68500</v>
+        <v>34100</v>
       </c>
       <c r="H61" s="3">
-        <v>78400</v>
+        <v>65100</v>
       </c>
       <c r="I61" s="3">
+        <v>68800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K61" s="3">
         <v>81700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2694,35 +2980,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30200</v>
+        <v>2900</v>
       </c>
       <c r="E62" s="3">
-        <v>41800</v>
+        <v>15800</v>
       </c>
       <c r="F62" s="3">
-        <v>45700</v>
+        <v>30300</v>
       </c>
       <c r="G62" s="3">
+        <v>42000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>45900</v>
+      </c>
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>14000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>9600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +3027,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3074,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3121,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3168,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>419200</v>
+        <v>167700</v>
       </c>
       <c r="E66" s="3">
-        <v>416300</v>
+        <v>314700</v>
       </c>
       <c r="F66" s="3">
-        <v>459600</v>
+        <v>421000</v>
       </c>
       <c r="G66" s="3">
-        <v>624900</v>
+        <v>418100</v>
       </c>
       <c r="H66" s="3">
-        <v>660000</v>
+        <v>461600</v>
       </c>
       <c r="I66" s="3">
+        <v>627600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>662800</v>
+      </c>
+      <c r="K66" s="3">
         <v>676000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3215,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3238,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3281,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3328,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3016,17 +3352,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K70" s="3">
         <v>40900</v>
       </c>
-      <c r="I70" s="3">
-        <v>40900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3039,8 +3375,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3422,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>157900</v>
+        <v>49800</v>
       </c>
       <c r="E72" s="3">
-        <v>342000</v>
+        <v>84600</v>
       </c>
       <c r="F72" s="3">
-        <v>326300</v>
+        <v>158600</v>
       </c>
       <c r="G72" s="3">
-        <v>158300</v>
+        <v>343500</v>
       </c>
       <c r="H72" s="3">
-        <v>141700</v>
+        <v>327700</v>
       </c>
       <c r="I72" s="3">
+        <v>159000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K72" s="3">
         <v>113600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3469,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3516,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3563,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3610,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>345600</v>
+        <v>239100</v>
       </c>
       <c r="E76" s="3">
-        <v>527100</v>
+        <v>272400</v>
       </c>
       <c r="F76" s="3">
-        <v>507100</v>
+        <v>347000</v>
       </c>
       <c r="G76" s="3">
-        <v>336000</v>
+        <v>529400</v>
       </c>
       <c r="H76" s="3">
-        <v>215700</v>
+        <v>509300</v>
       </c>
       <c r="I76" s="3">
+        <v>337400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>216600</v>
+      </c>
+      <c r="K76" s="3">
         <v>187500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3657,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,86 +3704,98 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38600</v>
+        <v>-34900</v>
       </c>
       <c r="E81" s="3">
-        <v>15700</v>
+        <v>-74000</v>
       </c>
       <c r="F81" s="3">
-        <v>16000</v>
+        <v>38700</v>
       </c>
       <c r="G81" s="3">
-        <v>-8500</v>
+        <v>15800</v>
       </c>
       <c r="H81" s="3">
-        <v>28100</v>
+        <v>16100</v>
       </c>
       <c r="I81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K81" s="3">
         <v>65100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -3413,8 +3803,14 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3826,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3869,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3916,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3963,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4010,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4057,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +4104,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3717,8 +4151,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4174,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4217,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4264,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4311,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4358,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4381,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4424,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4471,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4518,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4565,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4120,8 +4612,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4659,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4704,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>WEI</t>
   </si>
@@ -742,25 +742,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>99200</v>
+        <v>103600</v>
       </c>
       <c r="E8" s="3">
-        <v>139400</v>
+        <v>142300</v>
       </c>
       <c r="F8" s="3">
-        <v>523100</v>
+        <v>534100</v>
       </c>
       <c r="G8" s="3">
-        <v>143200</v>
+        <v>146300</v>
       </c>
       <c r="H8" s="3">
-        <v>151100</v>
+        <v>154200</v>
       </c>
       <c r="I8" s="3">
-        <v>158900</v>
+        <v>162300</v>
       </c>
       <c r="J8" s="3">
-        <v>164800</v>
+        <v>168300</v>
       </c>
       <c r="K8" s="3">
         <v>299900</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>53400</v>
+        <v>56800</v>
       </c>
       <c r="E9" s="3">
-        <v>67000</v>
+        <v>68500</v>
       </c>
       <c r="F9" s="3">
-        <v>219900</v>
+        <v>224500</v>
       </c>
       <c r="G9" s="3">
-        <v>53500</v>
+        <v>54600</v>
       </c>
       <c r="H9" s="3">
-        <v>63500</v>
+        <v>64800</v>
       </c>
       <c r="I9" s="3">
-        <v>69500</v>
+        <v>70900</v>
       </c>
       <c r="J9" s="3">
-        <v>71100</v>
+        <v>72600</v>
       </c>
       <c r="K9" s="3">
         <v>151300</v>
@@ -836,25 +836,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>45900</v>
+        <v>46800</v>
       </c>
       <c r="E10" s="3">
-        <v>72300</v>
+        <v>73800</v>
       </c>
       <c r="F10" s="3">
-        <v>303200</v>
+        <v>309600</v>
       </c>
       <c r="G10" s="3">
-        <v>89800</v>
+        <v>91700</v>
       </c>
       <c r="H10" s="3">
-        <v>87600</v>
+        <v>89400</v>
       </c>
       <c r="I10" s="3">
-        <v>89400</v>
+        <v>91300</v>
       </c>
       <c r="J10" s="3">
-        <v>93700</v>
+        <v>95700</v>
       </c>
       <c r="K10" s="3">
         <v>148700</v>
@@ -908,19 +908,19 @@
         <v>2600</v>
       </c>
       <c r="F12" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="G12" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H12" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I12" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J12" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="K12" s="3">
         <v>10200</v>
@@ -1002,7 +1002,7 @@
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1106,25 +1106,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>105400</v>
+        <v>109900</v>
       </c>
       <c r="E17" s="3">
-        <v>195600</v>
+        <v>199800</v>
       </c>
       <c r="F17" s="3">
-        <v>491300</v>
+        <v>501700</v>
       </c>
       <c r="G17" s="3">
-        <v>129800</v>
+        <v>132600</v>
       </c>
       <c r="H17" s="3">
-        <v>132000</v>
+        <v>134800</v>
       </c>
       <c r="I17" s="3">
-        <v>152500</v>
+        <v>155800</v>
       </c>
       <c r="J17" s="3">
-        <v>132700</v>
+        <v>135500</v>
       </c>
       <c r="K17" s="3">
         <v>240500</v>
@@ -1153,25 +1153,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="E18" s="3">
-        <v>-56300</v>
+        <v>-57500</v>
       </c>
       <c r="F18" s="3">
-        <v>31800</v>
+        <v>32400</v>
       </c>
       <c r="G18" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="H18" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="I18" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J18" s="3">
-        <v>32100</v>
+        <v>32700</v>
       </c>
       <c r="K18" s="3">
         <v>59500</v>
@@ -1219,25 +1219,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F20" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H20" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="I20" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="J20" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="K20" s="3">
         <v>2800</v>
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1360,25 +1360,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="E23" s="3">
-        <v>-52600</v>
+        <v>-53700</v>
       </c>
       <c r="F23" s="3">
-        <v>56300</v>
+        <v>57500</v>
       </c>
       <c r="G23" s="3">
-        <v>18400</v>
+        <v>18800</v>
       </c>
       <c r="H23" s="3">
-        <v>22500</v>
+        <v>22900</v>
       </c>
       <c r="I23" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="J23" s="3">
-        <v>40700</v>
+        <v>41600</v>
       </c>
       <c r="K23" s="3">
         <v>62300</v>
@@ -1407,25 +1407,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="E24" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="F24" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="G24" s="3">
         <v>2100</v>
       </c>
       <c r="H24" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I24" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J24" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="K24" s="3">
         <v>15500</v>
@@ -1501,25 +1501,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-34700</v>
+        <v>-35400</v>
       </c>
       <c r="E26" s="3">
-        <v>-74400</v>
+        <v>-76000</v>
       </c>
       <c r="F26" s="3">
-        <v>40200</v>
+        <v>41100</v>
       </c>
       <c r="G26" s="3">
-        <v>16300</v>
+        <v>16700</v>
       </c>
       <c r="H26" s="3">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="I26" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="J26" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="K26" s="3">
         <v>46800</v>
@@ -1548,25 +1548,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34900</v>
+        <v>-35600</v>
       </c>
       <c r="E27" s="3">
-        <v>-74000</v>
+        <v>-75600</v>
       </c>
       <c r="F27" s="3">
-        <v>38700</v>
+        <v>39600</v>
       </c>
       <c r="G27" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="H27" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="I27" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="J27" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="K27" s="3">
         <v>65100</v>
@@ -1783,25 +1783,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="F32" s="3">
-        <v>-24500</v>
+        <v>-25000</v>
       </c>
       <c r="G32" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="H32" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="I32" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="J32" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="K32" s="3">
         <v>-2800</v>
@@ -1830,25 +1830,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34900</v>
+        <v>-35600</v>
       </c>
       <c r="E33" s="3">
-        <v>-74000</v>
+        <v>-75600</v>
       </c>
       <c r="F33" s="3">
-        <v>38700</v>
+        <v>39600</v>
       </c>
       <c r="G33" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="H33" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="I33" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="J33" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="K33" s="3">
         <v>65100</v>
@@ -1924,25 +1924,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34900</v>
+        <v>-35600</v>
       </c>
       <c r="E35" s="3">
-        <v>-74000</v>
+        <v>-75600</v>
       </c>
       <c r="F35" s="3">
-        <v>38700</v>
+        <v>39600</v>
       </c>
       <c r="G35" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="H35" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="I35" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="J35" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="K35" s="3">
         <v>65100</v>
@@ -2061,25 +2061,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62600</v>
+        <v>63900</v>
       </c>
       <c r="E41" s="3">
-        <v>144500</v>
+        <v>147500</v>
       </c>
       <c r="F41" s="3">
-        <v>164300</v>
+        <v>167800</v>
       </c>
       <c r="G41" s="3">
-        <v>131800</v>
+        <v>134600</v>
       </c>
       <c r="H41" s="3">
-        <v>225000</v>
+        <v>229700</v>
       </c>
       <c r="I41" s="3">
-        <v>266100</v>
+        <v>271800</v>
       </c>
       <c r="J41" s="3">
-        <v>260300</v>
+        <v>265800</v>
       </c>
       <c r="K41" s="3">
         <v>277400</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>51400</v>
+        <v>52400</v>
       </c>
       <c r="H42" s="3">
-        <v>34100</v>
+        <v>34800</v>
       </c>
       <c r="I42" s="3">
         <v>600</v>
       </c>
       <c r="J42" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="K42" s="3">
         <v>500</v>
@@ -2155,25 +2155,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>114200</v>
+        <v>116600</v>
       </c>
       <c r="E43" s="3">
-        <v>176000</v>
+        <v>179700</v>
       </c>
       <c r="F43" s="3">
-        <v>241100</v>
+        <v>246200</v>
       </c>
       <c r="G43" s="3">
-        <v>390400</v>
+        <v>398700</v>
       </c>
       <c r="H43" s="3">
-        <v>323400</v>
+        <v>330300</v>
       </c>
       <c r="I43" s="3">
-        <v>242800</v>
+        <v>247900</v>
       </c>
       <c r="J43" s="3">
-        <v>264900</v>
+        <v>270500</v>
       </c>
       <c r="K43" s="3">
         <v>315800</v>
@@ -2249,25 +2249,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>157700</v>
+        <v>161000</v>
       </c>
       <c r="E45" s="3">
-        <v>161200</v>
+        <v>164600</v>
       </c>
       <c r="F45" s="3">
-        <v>236200</v>
+        <v>241200</v>
       </c>
       <c r="G45" s="3">
-        <v>209100</v>
+        <v>213500</v>
       </c>
       <c r="H45" s="3">
-        <v>202000</v>
+        <v>206300</v>
       </c>
       <c r="I45" s="3">
-        <v>320100</v>
+        <v>326800</v>
       </c>
       <c r="J45" s="3">
-        <v>259600</v>
+        <v>265100</v>
       </c>
       <c r="K45" s="3">
         <v>187800</v>
@@ -2296,25 +2296,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>334500</v>
+        <v>341500</v>
       </c>
       <c r="E46" s="3">
-        <v>481600</v>
+        <v>491800</v>
       </c>
       <c r="F46" s="3">
-        <v>641600</v>
+        <v>655200</v>
       </c>
       <c r="G46" s="3">
-        <v>782700</v>
+        <v>799300</v>
       </c>
       <c r="H46" s="3">
-        <v>784500</v>
+        <v>801100</v>
       </c>
       <c r="I46" s="3">
-        <v>829600</v>
+        <v>847200</v>
       </c>
       <c r="J46" s="3">
-        <v>793500</v>
+        <v>810300</v>
       </c>
       <c r="K46" s="3">
         <v>781500</v>
@@ -2346,22 +2346,22 @@
         <v>2100</v>
       </c>
       <c r="E47" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F47" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="G47" s="3">
-        <v>87000</v>
+        <v>88800</v>
       </c>
       <c r="H47" s="3">
-        <v>119400</v>
+        <v>121900</v>
       </c>
       <c r="I47" s="3">
-        <v>66400</v>
+        <v>67800</v>
       </c>
       <c r="J47" s="3">
-        <v>75500</v>
+        <v>77000</v>
       </c>
       <c r="K47" s="3">
         <v>77200</v>
@@ -2390,25 +2390,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F48" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="G48" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="H48" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="I48" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="J48" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="K48" s="3">
         <v>15800</v>
@@ -2436,8 +2436,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>900</v>
@@ -2578,25 +2578,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64500</v>
+        <v>65900</v>
       </c>
       <c r="E52" s="3">
-        <v>94400</v>
+        <v>96400</v>
       </c>
       <c r="F52" s="3">
-        <v>106700</v>
+        <v>109000</v>
       </c>
       <c r="G52" s="3">
-        <v>65600</v>
+        <v>67000</v>
       </c>
       <c r="H52" s="3">
-        <v>53600</v>
+        <v>54800</v>
       </c>
       <c r="I52" s="3">
-        <v>54500</v>
+        <v>55700</v>
       </c>
       <c r="J52" s="3">
-        <v>35400</v>
+        <v>36200</v>
       </c>
       <c r="K52" s="3">
         <v>29000</v>
@@ -2672,25 +2672,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>406800</v>
+        <v>415400</v>
       </c>
       <c r="E54" s="3">
-        <v>587200</v>
+        <v>599600</v>
       </c>
       <c r="F54" s="3">
-        <v>768000</v>
+        <v>784300</v>
       </c>
       <c r="G54" s="3">
-        <v>947500</v>
+        <v>967600</v>
       </c>
       <c r="H54" s="3">
-        <v>970900</v>
+        <v>991400</v>
       </c>
       <c r="I54" s="3">
-        <v>965000</v>
+        <v>985400</v>
       </c>
       <c r="J54" s="3">
-        <v>920500</v>
+        <v>940000</v>
       </c>
       <c r="K54" s="3">
         <v>904400</v>
@@ -2804,25 +2804,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E58" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="F58" s="3">
-        <v>44200</v>
+        <v>45100</v>
       </c>
       <c r="G58" s="3">
-        <v>69800</v>
+        <v>71300</v>
       </c>
       <c r="H58" s="3">
-        <v>77100</v>
+        <v>78700</v>
       </c>
       <c r="I58" s="3">
-        <v>153600</v>
+        <v>156800</v>
       </c>
       <c r="J58" s="3">
-        <v>201400</v>
+        <v>205700</v>
       </c>
       <c r="K58" s="3">
         <v>234500</v>
@@ -2851,25 +2851,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>157500</v>
+        <v>160900</v>
       </c>
       <c r="E59" s="3">
-        <v>274800</v>
+        <v>280600</v>
       </c>
       <c r="F59" s="3">
-        <v>337700</v>
+        <v>344900</v>
       </c>
       <c r="G59" s="3">
-        <v>271500</v>
+        <v>277300</v>
       </c>
       <c r="H59" s="3">
-        <v>272200</v>
+        <v>278000</v>
       </c>
       <c r="I59" s="3">
-        <v>400000</v>
+        <v>408500</v>
       </c>
       <c r="J59" s="3">
-        <v>367500</v>
+        <v>375300</v>
       </c>
       <c r="K59" s="3">
         <v>349500</v>
@@ -2898,25 +2898,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>164200</v>
+        <v>167600</v>
       </c>
       <c r="E60" s="3">
-        <v>297500</v>
+        <v>303800</v>
       </c>
       <c r="F60" s="3">
-        <v>381900</v>
+        <v>390000</v>
       </c>
       <c r="G60" s="3">
-        <v>341300</v>
+        <v>348500</v>
       </c>
       <c r="H60" s="3">
-        <v>349300</v>
+        <v>356700</v>
       </c>
       <c r="I60" s="3">
-        <v>553600</v>
+        <v>565300</v>
       </c>
       <c r="J60" s="3">
-        <v>568900</v>
+        <v>581000</v>
       </c>
       <c r="K60" s="3">
         <v>584000</v>
@@ -2951,19 +2951,19 @@
         <v>900</v>
       </c>
       <c r="F61" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G61" s="3">
-        <v>34100</v>
+        <v>34800</v>
       </c>
       <c r="H61" s="3">
-        <v>65100</v>
+        <v>66400</v>
       </c>
       <c r="I61" s="3">
-        <v>68800</v>
+        <v>70200</v>
       </c>
       <c r="J61" s="3">
-        <v>78800</v>
+        <v>80400</v>
       </c>
       <c r="K61" s="3">
         <v>81700</v>
@@ -2992,25 +2992,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="F62" s="3">
-        <v>30300</v>
+        <v>30900</v>
       </c>
       <c r="G62" s="3">
-        <v>42000</v>
+        <v>42900</v>
       </c>
       <c r="H62" s="3">
-        <v>45900</v>
+        <v>46900</v>
       </c>
       <c r="I62" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J62" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="K62" s="3">
         <v>9600</v>
@@ -3180,25 +3180,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>167700</v>
+        <v>171300</v>
       </c>
       <c r="E66" s="3">
-        <v>314700</v>
+        <v>321400</v>
       </c>
       <c r="F66" s="3">
-        <v>421000</v>
+        <v>429900</v>
       </c>
       <c r="G66" s="3">
-        <v>418100</v>
+        <v>427000</v>
       </c>
       <c r="H66" s="3">
-        <v>461600</v>
+        <v>471400</v>
       </c>
       <c r="I66" s="3">
-        <v>627600</v>
+        <v>640900</v>
       </c>
       <c r="J66" s="3">
-        <v>662800</v>
+        <v>676800</v>
       </c>
       <c r="K66" s="3">
         <v>676000</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>41100</v>
+        <v>42000</v>
       </c>
       <c r="K70" s="3">
         <v>40900</v>
@@ -3434,25 +3434,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>49800</v>
+        <v>50800</v>
       </c>
       <c r="E72" s="3">
-        <v>84600</v>
+        <v>86400</v>
       </c>
       <c r="F72" s="3">
-        <v>158600</v>
+        <v>162000</v>
       </c>
       <c r="G72" s="3">
-        <v>343500</v>
+        <v>350800</v>
       </c>
       <c r="H72" s="3">
-        <v>327700</v>
+        <v>334600</v>
       </c>
       <c r="I72" s="3">
-        <v>159000</v>
+        <v>162300</v>
       </c>
       <c r="J72" s="3">
-        <v>142400</v>
+        <v>145400</v>
       </c>
       <c r="K72" s="3">
         <v>113600</v>
@@ -3622,25 +3622,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>239100</v>
+        <v>244200</v>
       </c>
       <c r="E76" s="3">
-        <v>272400</v>
+        <v>278200</v>
       </c>
       <c r="F76" s="3">
-        <v>347000</v>
+        <v>354400</v>
       </c>
       <c r="G76" s="3">
-        <v>529400</v>
+        <v>540600</v>
       </c>
       <c r="H76" s="3">
-        <v>509300</v>
+        <v>520000</v>
       </c>
       <c r="I76" s="3">
-        <v>337400</v>
+        <v>344600</v>
       </c>
       <c r="J76" s="3">
-        <v>216600</v>
+        <v>221200</v>
       </c>
       <c r="K76" s="3">
         <v>187500</v>
@@ -3768,25 +3768,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34900</v>
+        <v>-35600</v>
       </c>
       <c r="E81" s="3">
-        <v>-74000</v>
+        <v>-75600</v>
       </c>
       <c r="F81" s="3">
-        <v>38700</v>
+        <v>39600</v>
       </c>
       <c r="G81" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="H81" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="I81" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="J81" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="K81" s="3">
         <v>65100</v>

--- a/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
@@ -742,25 +742,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>103600</v>
+        <v>102200</v>
       </c>
       <c r="E8" s="3">
-        <v>142300</v>
+        <v>140400</v>
       </c>
       <c r="F8" s="3">
-        <v>534100</v>
+        <v>527200</v>
       </c>
       <c r="G8" s="3">
-        <v>146300</v>
+        <v>144400</v>
       </c>
       <c r="H8" s="3">
-        <v>154200</v>
+        <v>152200</v>
       </c>
       <c r="I8" s="3">
-        <v>162300</v>
+        <v>160100</v>
       </c>
       <c r="J8" s="3">
-        <v>168300</v>
+        <v>166100</v>
       </c>
       <c r="K8" s="3">
         <v>299900</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56800</v>
+        <v>56000</v>
       </c>
       <c r="E9" s="3">
-        <v>68500</v>
+        <v>67600</v>
       </c>
       <c r="F9" s="3">
-        <v>224500</v>
+        <v>221600</v>
       </c>
       <c r="G9" s="3">
-        <v>54600</v>
+        <v>53900</v>
       </c>
       <c r="H9" s="3">
-        <v>64800</v>
+        <v>64000</v>
       </c>
       <c r="I9" s="3">
-        <v>70900</v>
+        <v>70000</v>
       </c>
       <c r="J9" s="3">
-        <v>72600</v>
+        <v>71600</v>
       </c>
       <c r="K9" s="3">
         <v>151300</v>
@@ -836,25 +836,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>46800</v>
+        <v>46200</v>
       </c>
       <c r="E10" s="3">
-        <v>73800</v>
+        <v>72900</v>
       </c>
       <c r="F10" s="3">
-        <v>309600</v>
+        <v>305600</v>
       </c>
       <c r="G10" s="3">
-        <v>91700</v>
+        <v>90500</v>
       </c>
       <c r="H10" s="3">
-        <v>89400</v>
+        <v>88300</v>
       </c>
       <c r="I10" s="3">
-        <v>91300</v>
+        <v>90100</v>
       </c>
       <c r="J10" s="3">
-        <v>95700</v>
+        <v>94500</v>
       </c>
       <c r="K10" s="3">
         <v>148700</v>
@@ -908,19 +908,19 @@
         <v>2600</v>
       </c>
       <c r="F12" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="G12" s="3">
         <v>4700</v>
       </c>
       <c r="H12" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I12" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="J12" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K12" s="3">
         <v>10200</v>
@@ -1002,7 +1002,7 @@
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1106,25 +1106,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>109900</v>
+        <v>108400</v>
       </c>
       <c r="E17" s="3">
-        <v>199800</v>
+        <v>197200</v>
       </c>
       <c r="F17" s="3">
-        <v>501700</v>
+        <v>495200</v>
       </c>
       <c r="G17" s="3">
-        <v>132600</v>
+        <v>130900</v>
       </c>
       <c r="H17" s="3">
-        <v>134800</v>
+        <v>133000</v>
       </c>
       <c r="I17" s="3">
-        <v>155800</v>
+        <v>153700</v>
       </c>
       <c r="J17" s="3">
-        <v>135500</v>
+        <v>133800</v>
       </c>
       <c r="K17" s="3">
         <v>240500</v>
@@ -1153,25 +1153,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="E18" s="3">
-        <v>-57500</v>
+        <v>-56700</v>
       </c>
       <c r="F18" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="G18" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="H18" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="I18" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J18" s="3">
-        <v>32700</v>
+        <v>32300</v>
       </c>
       <c r="K18" s="3">
         <v>59500</v>
@@ -1219,25 +1219,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="F20" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="G20" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I20" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J20" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="K20" s="3">
         <v>2800</v>
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1360,25 +1360,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="E23" s="3">
-        <v>-53700</v>
+        <v>-53000</v>
       </c>
       <c r="F23" s="3">
-        <v>57500</v>
+        <v>56700</v>
       </c>
       <c r="G23" s="3">
-        <v>18800</v>
+        <v>18500</v>
       </c>
       <c r="H23" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="I23" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="J23" s="3">
-        <v>41600</v>
+        <v>41000</v>
       </c>
       <c r="K23" s="3">
         <v>62300</v>
@@ -1407,13 +1407,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27100</v>
+        <v>26700</v>
       </c>
       <c r="E24" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="F24" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="G24" s="3">
         <v>2100</v>
@@ -1422,10 +1422,10 @@
         <v>5900</v>
       </c>
       <c r="I24" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="J24" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="K24" s="3">
         <v>15500</v>
@@ -1501,25 +1501,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35400</v>
+        <v>-35000</v>
       </c>
       <c r="E26" s="3">
-        <v>-76000</v>
+        <v>-75000</v>
       </c>
       <c r="F26" s="3">
-        <v>41100</v>
+        <v>40500</v>
       </c>
       <c r="G26" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="H26" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="I26" s="3">
-        <v>17200</v>
+        <v>16900</v>
       </c>
       <c r="J26" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="K26" s="3">
         <v>46800</v>
@@ -1548,25 +1548,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35600</v>
+        <v>-35100</v>
       </c>
       <c r="E27" s="3">
-        <v>-75600</v>
+        <v>-74600</v>
       </c>
       <c r="F27" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="G27" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="H27" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="I27" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="J27" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="K27" s="3">
         <v>65100</v>
@@ -1783,25 +1783,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="F32" s="3">
-        <v>-25000</v>
+        <v>-24700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I32" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="J32" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="K32" s="3">
         <v>-2800</v>
@@ -1830,25 +1830,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35600</v>
+        <v>-35100</v>
       </c>
       <c r="E33" s="3">
-        <v>-75600</v>
+        <v>-74600</v>
       </c>
       <c r="F33" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="G33" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="H33" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="I33" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="J33" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="K33" s="3">
         <v>65100</v>
@@ -1924,25 +1924,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35600</v>
+        <v>-35100</v>
       </c>
       <c r="E35" s="3">
-        <v>-75600</v>
+        <v>-74600</v>
       </c>
       <c r="F35" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="G35" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="H35" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="I35" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="J35" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="K35" s="3">
         <v>65100</v>
@@ -2061,25 +2061,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>63900</v>
+        <v>63100</v>
       </c>
       <c r="E41" s="3">
-        <v>147500</v>
+        <v>145600</v>
       </c>
       <c r="F41" s="3">
-        <v>167800</v>
+        <v>165600</v>
       </c>
       <c r="G41" s="3">
-        <v>134600</v>
+        <v>132900</v>
       </c>
       <c r="H41" s="3">
-        <v>229700</v>
+        <v>226700</v>
       </c>
       <c r="I41" s="3">
-        <v>271800</v>
+        <v>268200</v>
       </c>
       <c r="J41" s="3">
-        <v>265800</v>
+        <v>262300</v>
       </c>
       <c r="K41" s="3">
         <v>277400</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="H42" s="3">
-        <v>34800</v>
+        <v>34300</v>
       </c>
       <c r="I42" s="3">
         <v>600</v>
       </c>
       <c r="J42" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="K42" s="3">
         <v>500</v>
@@ -2155,25 +2155,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>116600</v>
+        <v>115100</v>
       </c>
       <c r="E43" s="3">
-        <v>179700</v>
+        <v>177400</v>
       </c>
       <c r="F43" s="3">
-        <v>246200</v>
+        <v>243000</v>
       </c>
       <c r="G43" s="3">
-        <v>398700</v>
+        <v>393500</v>
       </c>
       <c r="H43" s="3">
-        <v>330300</v>
+        <v>326000</v>
       </c>
       <c r="I43" s="3">
-        <v>247900</v>
+        <v>244700</v>
       </c>
       <c r="J43" s="3">
-        <v>270500</v>
+        <v>266900</v>
       </c>
       <c r="K43" s="3">
         <v>315800</v>
@@ -2249,25 +2249,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>161000</v>
+        <v>158900</v>
       </c>
       <c r="E45" s="3">
-        <v>164600</v>
+        <v>162400</v>
       </c>
       <c r="F45" s="3">
-        <v>241200</v>
+        <v>238100</v>
       </c>
       <c r="G45" s="3">
-        <v>213500</v>
+        <v>210800</v>
       </c>
       <c r="H45" s="3">
-        <v>206300</v>
+        <v>203600</v>
       </c>
       <c r="I45" s="3">
-        <v>326800</v>
+        <v>322600</v>
       </c>
       <c r="J45" s="3">
-        <v>265100</v>
+        <v>261600</v>
       </c>
       <c r="K45" s="3">
         <v>187800</v>
@@ -2296,25 +2296,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>341500</v>
+        <v>337100</v>
       </c>
       <c r="E46" s="3">
-        <v>491800</v>
+        <v>485400</v>
       </c>
       <c r="F46" s="3">
-        <v>655200</v>
+        <v>646700</v>
       </c>
       <c r="G46" s="3">
-        <v>799300</v>
+        <v>788900</v>
       </c>
       <c r="H46" s="3">
-        <v>801100</v>
+        <v>790600</v>
       </c>
       <c r="I46" s="3">
-        <v>847200</v>
+        <v>836200</v>
       </c>
       <c r="J46" s="3">
-        <v>810300</v>
+        <v>799800</v>
       </c>
       <c r="K46" s="3">
         <v>781500</v>
@@ -2346,22 +2346,22 @@
         <v>2100</v>
       </c>
       <c r="E47" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F47" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="G47" s="3">
-        <v>88800</v>
+        <v>87600</v>
       </c>
       <c r="H47" s="3">
-        <v>121900</v>
+        <v>120400</v>
       </c>
       <c r="I47" s="3">
-        <v>67800</v>
+        <v>67000</v>
       </c>
       <c r="J47" s="3">
-        <v>77000</v>
+        <v>76000</v>
       </c>
       <c r="K47" s="3">
         <v>77200</v>
@@ -2390,25 +2390,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E48" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="F48" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="G48" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="H48" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="I48" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="J48" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="K48" s="3">
         <v>15800</v>
@@ -2578,25 +2578,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65900</v>
+        <v>65100</v>
       </c>
       <c r="E52" s="3">
-        <v>96400</v>
+        <v>95200</v>
       </c>
       <c r="F52" s="3">
-        <v>109000</v>
+        <v>107600</v>
       </c>
       <c r="G52" s="3">
-        <v>67000</v>
+        <v>66100</v>
       </c>
       <c r="H52" s="3">
-        <v>54800</v>
+        <v>54000</v>
       </c>
       <c r="I52" s="3">
-        <v>55700</v>
+        <v>54900</v>
       </c>
       <c r="J52" s="3">
-        <v>36200</v>
+        <v>35700</v>
       </c>
       <c r="K52" s="3">
         <v>29000</v>
@@ -2672,25 +2672,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>415400</v>
+        <v>410000</v>
       </c>
       <c r="E54" s="3">
-        <v>599600</v>
+        <v>591800</v>
       </c>
       <c r="F54" s="3">
-        <v>784300</v>
+        <v>774100</v>
       </c>
       <c r="G54" s="3">
-        <v>967600</v>
+        <v>955000</v>
       </c>
       <c r="H54" s="3">
-        <v>991400</v>
+        <v>978500</v>
       </c>
       <c r="I54" s="3">
-        <v>985400</v>
+        <v>972600</v>
       </c>
       <c r="J54" s="3">
-        <v>940000</v>
+        <v>927700</v>
       </c>
       <c r="K54" s="3">
         <v>904400</v>
@@ -2804,25 +2804,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E58" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="F58" s="3">
-        <v>45100</v>
+        <v>44500</v>
       </c>
       <c r="G58" s="3">
-        <v>71300</v>
+        <v>70300</v>
       </c>
       <c r="H58" s="3">
-        <v>78700</v>
+        <v>77700</v>
       </c>
       <c r="I58" s="3">
-        <v>156800</v>
+        <v>154800</v>
       </c>
       <c r="J58" s="3">
-        <v>205700</v>
+        <v>203000</v>
       </c>
       <c r="K58" s="3">
         <v>234500</v>
@@ -2851,25 +2851,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>160900</v>
+        <v>158800</v>
       </c>
       <c r="E59" s="3">
-        <v>280600</v>
+        <v>277000</v>
       </c>
       <c r="F59" s="3">
-        <v>344900</v>
+        <v>340400</v>
       </c>
       <c r="G59" s="3">
-        <v>277300</v>
+        <v>273700</v>
       </c>
       <c r="H59" s="3">
-        <v>278000</v>
+        <v>274300</v>
       </c>
       <c r="I59" s="3">
-        <v>408500</v>
+        <v>403200</v>
       </c>
       <c r="J59" s="3">
-        <v>375300</v>
+        <v>370400</v>
       </c>
       <c r="K59" s="3">
         <v>349500</v>
@@ -2898,25 +2898,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>167600</v>
+        <v>165500</v>
       </c>
       <c r="E60" s="3">
-        <v>303800</v>
+        <v>299800</v>
       </c>
       <c r="F60" s="3">
-        <v>390000</v>
+        <v>384900</v>
       </c>
       <c r="G60" s="3">
-        <v>348500</v>
+        <v>344000</v>
       </c>
       <c r="H60" s="3">
-        <v>356700</v>
+        <v>352000</v>
       </c>
       <c r="I60" s="3">
-        <v>565300</v>
+        <v>558000</v>
       </c>
       <c r="J60" s="3">
-        <v>581000</v>
+        <v>573400</v>
       </c>
       <c r="K60" s="3">
         <v>584000</v>
@@ -2951,19 +2951,19 @@
         <v>900</v>
       </c>
       <c r="F61" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="G61" s="3">
-        <v>34800</v>
+        <v>34300</v>
       </c>
       <c r="H61" s="3">
-        <v>66400</v>
+        <v>65600</v>
       </c>
       <c r="I61" s="3">
-        <v>70200</v>
+        <v>69300</v>
       </c>
       <c r="J61" s="3">
-        <v>80400</v>
+        <v>79400</v>
       </c>
       <c r="K61" s="3">
         <v>81700</v>
@@ -2995,22 +2995,22 @@
         <v>3000</v>
       </c>
       <c r="E62" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="F62" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="G62" s="3">
-        <v>42900</v>
+        <v>42300</v>
       </c>
       <c r="H62" s="3">
-        <v>46900</v>
+        <v>46300</v>
       </c>
       <c r="I62" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="J62" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="K62" s="3">
         <v>9600</v>
@@ -3180,25 +3180,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171300</v>
+        <v>169000</v>
       </c>
       <c r="E66" s="3">
-        <v>321400</v>
+        <v>317200</v>
       </c>
       <c r="F66" s="3">
-        <v>429900</v>
+        <v>424300</v>
       </c>
       <c r="G66" s="3">
-        <v>427000</v>
+        <v>421400</v>
       </c>
       <c r="H66" s="3">
-        <v>471400</v>
+        <v>465200</v>
       </c>
       <c r="I66" s="3">
-        <v>640900</v>
+        <v>632500</v>
       </c>
       <c r="J66" s="3">
-        <v>676800</v>
+        <v>668000</v>
       </c>
       <c r="K66" s="3">
         <v>676000</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>42000</v>
+        <v>41400</v>
       </c>
       <c r="K70" s="3">
         <v>40900</v>
@@ -3434,25 +3434,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50800</v>
+        <v>50200</v>
       </c>
       <c r="E72" s="3">
-        <v>86400</v>
+        <v>85300</v>
       </c>
       <c r="F72" s="3">
-        <v>162000</v>
+        <v>159900</v>
       </c>
       <c r="G72" s="3">
-        <v>350800</v>
+        <v>346200</v>
       </c>
       <c r="H72" s="3">
-        <v>334600</v>
+        <v>330300</v>
       </c>
       <c r="I72" s="3">
-        <v>162300</v>
+        <v>160200</v>
       </c>
       <c r="J72" s="3">
-        <v>145400</v>
+        <v>143500</v>
       </c>
       <c r="K72" s="3">
         <v>113600</v>
@@ -3622,25 +3622,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>244200</v>
+        <v>241000</v>
       </c>
       <c r="E76" s="3">
-        <v>278200</v>
+        <v>274600</v>
       </c>
       <c r="F76" s="3">
-        <v>354400</v>
+        <v>349800</v>
       </c>
       <c r="G76" s="3">
-        <v>540600</v>
+        <v>533600</v>
       </c>
       <c r="H76" s="3">
-        <v>520000</v>
+        <v>513300</v>
       </c>
       <c r="I76" s="3">
-        <v>344600</v>
+        <v>340100</v>
       </c>
       <c r="J76" s="3">
-        <v>221200</v>
+        <v>218300</v>
       </c>
       <c r="K76" s="3">
         <v>187500</v>
@@ -3768,25 +3768,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35600</v>
+        <v>-35100</v>
       </c>
       <c r="E81" s="3">
-        <v>-75600</v>
+        <v>-74600</v>
       </c>
       <c r="F81" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="G81" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="H81" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="I81" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="J81" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="K81" s="3">
         <v>65100</v>

--- a/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>WEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,233 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>102200</v>
+        <v>84700</v>
       </c>
       <c r="E8" s="3">
-        <v>140400</v>
+        <v>104000</v>
       </c>
       <c r="F8" s="3">
-        <v>527200</v>
+        <v>142800</v>
       </c>
       <c r="G8" s="3">
-        <v>144400</v>
+        <v>536000</v>
       </c>
       <c r="H8" s="3">
-        <v>152200</v>
+        <v>146800</v>
       </c>
       <c r="I8" s="3">
-        <v>160100</v>
+        <v>154800</v>
       </c>
       <c r="J8" s="3">
+        <v>162800</v>
+      </c>
+      <c r="K8" s="3">
         <v>166100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>299900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>120100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>121900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>113200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>95900</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56000</v>
+        <v>31900</v>
       </c>
       <c r="E9" s="3">
-        <v>67600</v>
+        <v>57000</v>
       </c>
       <c r="F9" s="3">
-        <v>221600</v>
+        <v>68700</v>
       </c>
       <c r="G9" s="3">
-        <v>53900</v>
+        <v>225300</v>
       </c>
       <c r="H9" s="3">
-        <v>64000</v>
+        <v>54800</v>
       </c>
       <c r="I9" s="3">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="J9" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K9" s="3">
         <v>71600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>151300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>70800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>71400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>64900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>56900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>46200</v>
+        <v>52800</v>
       </c>
       <c r="E10" s="3">
-        <v>72900</v>
+        <v>47000</v>
       </c>
       <c r="F10" s="3">
-        <v>305600</v>
+        <v>74100</v>
       </c>
       <c r="G10" s="3">
-        <v>90500</v>
+        <v>310700</v>
       </c>
       <c r="H10" s="3">
-        <v>88300</v>
+        <v>92000</v>
       </c>
       <c r="I10" s="3">
-        <v>90100</v>
+        <v>89800</v>
       </c>
       <c r="J10" s="3">
+        <v>91600</v>
+      </c>
+      <c r="K10" s="3">
         <v>94500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>148700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>48300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,55 +909,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
-        <v>2600</v>
-      </c>
       <c r="F12" s="3">
-        <v>12600</v>
+        <v>2700</v>
       </c>
       <c r="G12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="H12" s="3">
-        <v>6700</v>
-      </c>
       <c r="I12" s="3">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="J12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K12" s="3">
         <v>5300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,38 +1007,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,8 +1057,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>108400</v>
+        <v>75700</v>
       </c>
       <c r="E17" s="3">
-        <v>197200</v>
+        <v>110300</v>
       </c>
       <c r="F17" s="3">
-        <v>495200</v>
+        <v>200500</v>
       </c>
       <c r="G17" s="3">
-        <v>130900</v>
+        <v>503500</v>
       </c>
       <c r="H17" s="3">
-        <v>133000</v>
+        <v>133100</v>
       </c>
       <c r="I17" s="3">
-        <v>153700</v>
+        <v>135200</v>
       </c>
       <c r="J17" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K17" s="3">
         <v>133800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>240500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>94200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>112100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>94200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>83200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>74200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6200</v>
+        <v>9000</v>
       </c>
       <c r="E18" s="3">
-        <v>-56700</v>
+        <v>-6300</v>
       </c>
       <c r="F18" s="3">
-        <v>32000</v>
+        <v>-57700</v>
       </c>
       <c r="G18" s="3">
-        <v>13500</v>
+        <v>32600</v>
       </c>
       <c r="H18" s="3">
-        <v>19200</v>
+        <v>13700</v>
       </c>
       <c r="I18" s="3">
-        <v>6400</v>
+        <v>19500</v>
       </c>
       <c r="J18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K18" s="3">
         <v>32300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,55 +1246,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>3700</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>24700</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
-        <v>5000</v>
+        <v>25100</v>
       </c>
       <c r="H20" s="3">
-        <v>3400</v>
+        <v>5100</v>
       </c>
       <c r="I20" s="3">
-        <v>7200</v>
+        <v>3500</v>
       </c>
       <c r="J20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K20" s="3">
         <v>8700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1280,35 +1317,38 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>20200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>64200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>14300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>32800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,102 +1394,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8300</v>
+        <v>8800</v>
       </c>
       <c r="E23" s="3">
-        <v>-53000</v>
+        <v>-8400</v>
       </c>
       <c r="F23" s="3">
-        <v>56700</v>
+        <v>-53900</v>
       </c>
       <c r="G23" s="3">
-        <v>18500</v>
+        <v>57700</v>
       </c>
       <c r="H23" s="3">
-        <v>22600</v>
+        <v>18800</v>
       </c>
       <c r="I23" s="3">
-        <v>13600</v>
+        <v>23000</v>
       </c>
       <c r="J23" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K23" s="3">
         <v>41000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>62300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26700</v>
+        <v>70900</v>
       </c>
       <c r="E24" s="3">
-        <v>22000</v>
+        <v>27200</v>
       </c>
       <c r="F24" s="3">
-        <v>16200</v>
+        <v>22400</v>
       </c>
       <c r="G24" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
-        <v>5900</v>
-      </c>
       <c r="I24" s="3">
-        <v>-3300</v>
+        <v>6000</v>
       </c>
       <c r="J24" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K24" s="3">
         <v>12200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6400</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,43 +1544,46 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35000</v>
+        <v>-62200</v>
       </c>
       <c r="E26" s="3">
-        <v>-75000</v>
+        <v>-35600</v>
       </c>
       <c r="F26" s="3">
-        <v>40500</v>
+        <v>-76300</v>
       </c>
       <c r="G26" s="3">
-        <v>16500</v>
+        <v>41200</v>
       </c>
       <c r="H26" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="I26" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="J26" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K26" s="3">
         <v>28800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1542,43 +1594,46 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35100</v>
+        <v>-61900</v>
       </c>
       <c r="E27" s="3">
-        <v>-74600</v>
+        <v>-35700</v>
       </c>
       <c r="F27" s="3">
-        <v>39100</v>
+        <v>-75800</v>
       </c>
       <c r="G27" s="3">
-        <v>15900</v>
+        <v>39700</v>
       </c>
       <c r="H27" s="3">
         <v>16200</v>
       </c>
       <c r="I27" s="3">
-        <v>-8600</v>
+        <v>16500</v>
       </c>
       <c r="J27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K27" s="3">
         <v>28500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>65100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1589,8 +1644,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,90 +1844,96 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>-3700</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-24700</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
-        <v>-5000</v>
+        <v>-25100</v>
       </c>
       <c r="H32" s="3">
-        <v>-3400</v>
+        <v>-5100</v>
       </c>
       <c r="I32" s="3">
-        <v>-7200</v>
+        <v>-3500</v>
       </c>
       <c r="J32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35100</v>
+        <v>-61900</v>
       </c>
       <c r="E33" s="3">
-        <v>-74600</v>
+        <v>-35700</v>
       </c>
       <c r="F33" s="3">
-        <v>39100</v>
+        <v>-75800</v>
       </c>
       <c r="G33" s="3">
-        <v>15900</v>
+        <v>39700</v>
       </c>
       <c r="H33" s="3">
         <v>16200</v>
       </c>
       <c r="I33" s="3">
-        <v>-8600</v>
+        <v>16500</v>
       </c>
       <c r="J33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K33" s="3">
         <v>28500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>65100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -1871,8 +1944,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,43 +1994,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35100</v>
+        <v>-61900</v>
       </c>
       <c r="E35" s="3">
-        <v>-74600</v>
+        <v>-35700</v>
       </c>
       <c r="F35" s="3">
-        <v>39100</v>
+        <v>-75800</v>
       </c>
       <c r="G35" s="3">
-        <v>15900</v>
+        <v>39700</v>
       </c>
       <c r="H35" s="3">
         <v>16200</v>
       </c>
       <c r="I35" s="3">
-        <v>-8600</v>
+        <v>16500</v>
       </c>
       <c r="J35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K35" s="3">
         <v>28500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>65100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -1965,60 +2044,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,38 +2141,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>63100</v>
+        <v>52200</v>
       </c>
       <c r="E41" s="3">
-        <v>145600</v>
+        <v>64100</v>
       </c>
       <c r="F41" s="3">
-        <v>165600</v>
+        <v>148000</v>
       </c>
       <c r="G41" s="3">
-        <v>132900</v>
+        <v>168400</v>
       </c>
       <c r="H41" s="3">
-        <v>226700</v>
+        <v>135100</v>
       </c>
       <c r="I41" s="3">
-        <v>268200</v>
+        <v>230500</v>
       </c>
       <c r="J41" s="3">
+        <v>272700</v>
+      </c>
+      <c r="K41" s="3">
         <v>262300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>277400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2102,8 +2189,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2113,27 +2203,27 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>51800</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>34300</v>
+        <v>52600</v>
       </c>
       <c r="I42" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J42" s="3">
         <v>600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2149,38 +2239,41 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>115100</v>
+        <v>188500</v>
       </c>
       <c r="E43" s="3">
-        <v>177400</v>
+        <v>117000</v>
       </c>
       <c r="F43" s="3">
-        <v>243000</v>
+        <v>180300</v>
       </c>
       <c r="G43" s="3">
-        <v>393500</v>
+        <v>247100</v>
       </c>
       <c r="H43" s="3">
-        <v>326000</v>
+        <v>400100</v>
       </c>
       <c r="I43" s="3">
-        <v>244700</v>
+        <v>331400</v>
       </c>
       <c r="J43" s="3">
+        <v>248800</v>
+      </c>
+      <c r="K43" s="3">
         <v>266900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>315800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2289,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2243,38 +2339,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>158900</v>
+        <v>81200</v>
       </c>
       <c r="E45" s="3">
-        <v>162400</v>
+        <v>161600</v>
       </c>
       <c r="F45" s="3">
-        <v>238100</v>
+        <v>165200</v>
       </c>
       <c r="G45" s="3">
-        <v>210800</v>
+        <v>242000</v>
       </c>
       <c r="H45" s="3">
-        <v>203600</v>
+        <v>214300</v>
       </c>
       <c r="I45" s="3">
-        <v>322600</v>
+        <v>207000</v>
       </c>
       <c r="J45" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K45" s="3">
         <v>261600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>187800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,38 +2389,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>337100</v>
+        <v>321800</v>
       </c>
       <c r="E46" s="3">
-        <v>485400</v>
+        <v>342700</v>
       </c>
       <c r="F46" s="3">
-        <v>646700</v>
+        <v>493500</v>
       </c>
       <c r="G46" s="3">
-        <v>788900</v>
+        <v>657500</v>
       </c>
       <c r="H46" s="3">
-        <v>790600</v>
+        <v>802100</v>
       </c>
       <c r="I46" s="3">
-        <v>836200</v>
+        <v>803900</v>
       </c>
       <c r="J46" s="3">
+        <v>850200</v>
+      </c>
+      <c r="K46" s="3">
         <v>799800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>781500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,8 +2439,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2346,29 +2451,29 @@
         <v>2100</v>
       </c>
       <c r="E47" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="F47" s="3">
-        <v>9700</v>
+        <v>3000</v>
       </c>
       <c r="G47" s="3">
-        <v>87600</v>
+        <v>9900</v>
       </c>
       <c r="H47" s="3">
-        <v>120400</v>
+        <v>89100</v>
       </c>
       <c r="I47" s="3">
-        <v>67000</v>
+        <v>122400</v>
       </c>
       <c r="J47" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K47" s="3">
         <v>76000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,38 +2489,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800</v>
+        <v>5100</v>
       </c>
       <c r="E48" s="3">
-        <v>7400</v>
+        <v>5900</v>
       </c>
       <c r="F48" s="3">
-        <v>9200</v>
+        <v>7500</v>
       </c>
       <c r="G48" s="3">
-        <v>11400</v>
+        <v>9400</v>
       </c>
       <c r="H48" s="3">
-        <v>12600</v>
+        <v>11600</v>
       </c>
       <c r="I48" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="J48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K48" s="3">
         <v>15300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,16 +2539,19 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
@@ -2460,8 +2571,8 @@
       <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>900</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,38 +2689,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65100</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
-        <v>95200</v>
+        <v>66100</v>
       </c>
       <c r="F52" s="3">
-        <v>107600</v>
+        <v>96800</v>
       </c>
       <c r="G52" s="3">
-        <v>66100</v>
+        <v>109400</v>
       </c>
       <c r="H52" s="3">
-        <v>54000</v>
+        <v>67300</v>
       </c>
       <c r="I52" s="3">
-        <v>54900</v>
+        <v>55000</v>
       </c>
       <c r="J52" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K52" s="3">
         <v>35700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2739,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,38 +2789,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>410000</v>
+        <v>330700</v>
       </c>
       <c r="E54" s="3">
-        <v>591800</v>
+        <v>416900</v>
       </c>
       <c r="F54" s="3">
-        <v>774100</v>
+        <v>601700</v>
       </c>
       <c r="G54" s="3">
-        <v>955000</v>
+        <v>787000</v>
       </c>
       <c r="H54" s="3">
-        <v>978500</v>
+        <v>971000</v>
       </c>
       <c r="I54" s="3">
-        <v>972600</v>
+        <v>994900</v>
       </c>
       <c r="J54" s="3">
+        <v>988900</v>
+      </c>
+      <c r="K54" s="3">
         <v>927700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>904400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2839,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,8 +2881,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2798,38 +2929,41 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6700</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
-        <v>22900</v>
+        <v>6800</v>
       </c>
       <c r="F58" s="3">
-        <v>44500</v>
+        <v>23200</v>
       </c>
       <c r="G58" s="3">
-        <v>70300</v>
+        <v>45200</v>
       </c>
       <c r="H58" s="3">
-        <v>77700</v>
+        <v>71500</v>
       </c>
       <c r="I58" s="3">
-        <v>154800</v>
+        <v>79000</v>
       </c>
       <c r="J58" s="3">
+        <v>157400</v>
+      </c>
+      <c r="K58" s="3">
         <v>203000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>234500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2845,38 +2979,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>158800</v>
+        <v>144200</v>
       </c>
       <c r="E59" s="3">
-        <v>277000</v>
+        <v>161400</v>
       </c>
       <c r="F59" s="3">
-        <v>340400</v>
+        <v>281600</v>
       </c>
       <c r="G59" s="3">
-        <v>273700</v>
+        <v>346100</v>
       </c>
       <c r="H59" s="3">
-        <v>274300</v>
+        <v>278200</v>
       </c>
       <c r="I59" s="3">
-        <v>403200</v>
+        <v>278900</v>
       </c>
       <c r="J59" s="3">
+        <v>409900</v>
+      </c>
+      <c r="K59" s="3">
         <v>370400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>349500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2892,38 +3029,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>165500</v>
+        <v>146000</v>
       </c>
       <c r="E60" s="3">
-        <v>299800</v>
+        <v>168200</v>
       </c>
       <c r="F60" s="3">
-        <v>384900</v>
+        <v>304900</v>
       </c>
       <c r="G60" s="3">
-        <v>344000</v>
+        <v>391300</v>
       </c>
       <c r="H60" s="3">
-        <v>352000</v>
+        <v>349700</v>
       </c>
       <c r="I60" s="3">
-        <v>558000</v>
+        <v>357900</v>
       </c>
       <c r="J60" s="3">
+        <v>567300</v>
+      </c>
+      <c r="K60" s="3">
         <v>573400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>584000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3079,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2948,29 +3091,29 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
-        <v>7900</v>
-      </c>
       <c r="G61" s="3">
-        <v>34300</v>
+        <v>8100</v>
       </c>
       <c r="H61" s="3">
-        <v>65600</v>
+        <v>34900</v>
       </c>
       <c r="I61" s="3">
-        <v>69300</v>
+        <v>66700</v>
       </c>
       <c r="J61" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K61" s="3">
         <v>79400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2986,38 +3129,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
-        <v>16000</v>
-      </c>
       <c r="F62" s="3">
-        <v>30500</v>
+        <v>16200</v>
       </c>
       <c r="G62" s="3">
-        <v>42300</v>
+        <v>31000</v>
       </c>
       <c r="H62" s="3">
-        <v>46300</v>
+        <v>43000</v>
       </c>
       <c r="I62" s="3">
-        <v>3900</v>
+        <v>47100</v>
       </c>
       <c r="J62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K62" s="3">
         <v>14100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3033,8 +3179,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,38 +3329,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>169000</v>
+        <v>146700</v>
       </c>
       <c r="E66" s="3">
-        <v>317200</v>
+        <v>171900</v>
       </c>
       <c r="F66" s="3">
-        <v>424300</v>
+        <v>322500</v>
       </c>
       <c r="G66" s="3">
-        <v>421400</v>
+        <v>431400</v>
       </c>
       <c r="H66" s="3">
-        <v>465200</v>
+        <v>428500</v>
       </c>
       <c r="I66" s="3">
-        <v>632500</v>
+        <v>473000</v>
       </c>
       <c r="J66" s="3">
+        <v>643100</v>
+      </c>
+      <c r="K66" s="3">
         <v>668000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>676000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3379,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3358,14 +3526,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>41400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>40900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,38 +3599,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50200</v>
+        <v>-10900</v>
       </c>
       <c r="E72" s="3">
-        <v>85300</v>
+        <v>51000</v>
       </c>
       <c r="F72" s="3">
-        <v>159900</v>
+        <v>86700</v>
       </c>
       <c r="G72" s="3">
-        <v>346200</v>
+        <v>162600</v>
       </c>
       <c r="H72" s="3">
-        <v>330300</v>
+        <v>352000</v>
       </c>
       <c r="I72" s="3">
-        <v>160200</v>
+        <v>335800</v>
       </c>
       <c r="J72" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K72" s="3">
         <v>143500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>113600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3649,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,38 +3799,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>241000</v>
+        <v>184000</v>
       </c>
       <c r="E76" s="3">
-        <v>274600</v>
+        <v>245000</v>
       </c>
       <c r="F76" s="3">
-        <v>349800</v>
+        <v>279200</v>
       </c>
       <c r="G76" s="3">
-        <v>533600</v>
+        <v>355600</v>
       </c>
       <c r="H76" s="3">
-        <v>513300</v>
+        <v>542500</v>
       </c>
       <c r="I76" s="3">
-        <v>340100</v>
+        <v>521900</v>
       </c>
       <c r="J76" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K76" s="3">
         <v>218300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>187500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3849,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,95 +3899,101 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35100</v>
+        <v>-61900</v>
       </c>
       <c r="E81" s="3">
-        <v>-74600</v>
+        <v>-35700</v>
       </c>
       <c r="F81" s="3">
-        <v>39100</v>
+        <v>-75800</v>
       </c>
       <c r="G81" s="3">
-        <v>15900</v>
+        <v>39700</v>
       </c>
       <c r="H81" s="3">
         <v>16200</v>
       </c>
       <c r="I81" s="3">
-        <v>-8600</v>
+        <v>16500</v>
       </c>
       <c r="J81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K81" s="3">
         <v>28500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>65100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -3809,8 +4004,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4026,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3875,8 +4074,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,8 +4324,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4157,8 +4374,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,8 +4396,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4223,8 +4444,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,8 +4544,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4364,8 +4594,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,8 +4814,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4618,8 +4864,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,8 +4914,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4710,6 +4962,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
@@ -746,25 +746,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>84700</v>
+        <v>85300</v>
       </c>
       <c r="E8" s="3">
-        <v>104000</v>
+        <v>104800</v>
       </c>
       <c r="F8" s="3">
-        <v>142800</v>
+        <v>143900</v>
       </c>
       <c r="G8" s="3">
-        <v>536000</v>
+        <v>540100</v>
       </c>
       <c r="H8" s="3">
-        <v>146800</v>
+        <v>147900</v>
       </c>
       <c r="I8" s="3">
-        <v>154800</v>
+        <v>156000</v>
       </c>
       <c r="J8" s="3">
-        <v>162800</v>
+        <v>164100</v>
       </c>
       <c r="K8" s="3">
         <v>166100</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31900</v>
+        <v>32100</v>
       </c>
       <c r="E9" s="3">
-        <v>57000</v>
+        <v>57400</v>
       </c>
       <c r="F9" s="3">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="G9" s="3">
-        <v>225300</v>
+        <v>227100</v>
       </c>
       <c r="H9" s="3">
-        <v>54800</v>
+        <v>55200</v>
       </c>
       <c r="I9" s="3">
-        <v>65000</v>
+        <v>65500</v>
       </c>
       <c r="J9" s="3">
-        <v>71200</v>
+        <v>71700</v>
       </c>
       <c r="K9" s="3">
         <v>71600</v>
@@ -846,25 +846,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>52800</v>
+        <v>53200</v>
       </c>
       <c r="E10" s="3">
-        <v>47000</v>
+        <v>47300</v>
       </c>
       <c r="F10" s="3">
-        <v>74100</v>
+        <v>74700</v>
       </c>
       <c r="G10" s="3">
-        <v>310700</v>
+        <v>313100</v>
       </c>
       <c r="H10" s="3">
-        <v>92000</v>
+        <v>92700</v>
       </c>
       <c r="I10" s="3">
-        <v>89800</v>
+        <v>90500</v>
       </c>
       <c r="J10" s="3">
-        <v>91600</v>
+        <v>92400</v>
       </c>
       <c r="K10" s="3">
         <v>94500</v>
@@ -925,16 +925,16 @@
         <v>2700</v>
       </c>
       <c r="G12" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="H12" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I12" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="J12" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K12" s="3">
         <v>5300</v>
@@ -1133,25 +1133,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>75700</v>
+        <v>76300</v>
       </c>
       <c r="E17" s="3">
-        <v>110300</v>
+        <v>111100</v>
       </c>
       <c r="F17" s="3">
-        <v>200500</v>
+        <v>202000</v>
       </c>
       <c r="G17" s="3">
-        <v>503500</v>
+        <v>507300</v>
       </c>
       <c r="H17" s="3">
-        <v>133100</v>
+        <v>134100</v>
       </c>
       <c r="I17" s="3">
-        <v>135200</v>
+        <v>136300</v>
       </c>
       <c r="J17" s="3">
-        <v>156300</v>
+        <v>157500</v>
       </c>
       <c r="K17" s="3">
         <v>133800</v>
@@ -1186,22 +1186,22 @@
         <v>9000</v>
       </c>
       <c r="E18" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F18" s="3">
-        <v>-57700</v>
+        <v>-58100</v>
       </c>
       <c r="G18" s="3">
-        <v>32600</v>
+        <v>32800</v>
       </c>
       <c r="H18" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="I18" s="3">
-        <v>19500</v>
+        <v>19700</v>
       </c>
       <c r="J18" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="K18" s="3">
         <v>32300</v>
@@ -1262,7 +1262,7 @@
         <v>3800</v>
       </c>
       <c r="G20" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="H20" s="3">
         <v>5100</v>
@@ -1271,7 +1271,7 @@
         <v>3500</v>
       </c>
       <c r="J20" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="K20" s="3">
         <v>8700</v>
@@ -1321,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1406,22 +1406,22 @@
         <v>8800</v>
       </c>
       <c r="E23" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="F23" s="3">
-        <v>-53900</v>
+        <v>-54300</v>
       </c>
       <c r="G23" s="3">
-        <v>57700</v>
+        <v>58100</v>
       </c>
       <c r="H23" s="3">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="I23" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="J23" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="K23" s="3">
         <v>41000</v>
@@ -1453,16 +1453,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70900</v>
+        <v>71500</v>
       </c>
       <c r="E24" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="F24" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="G24" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="H24" s="3">
         <v>2100</v>
@@ -1553,25 +1553,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-62200</v>
+        <v>-62700</v>
       </c>
       <c r="E26" s="3">
-        <v>-35600</v>
+        <v>-35800</v>
       </c>
       <c r="F26" s="3">
-        <v>-76300</v>
+        <v>-76900</v>
       </c>
       <c r="G26" s="3">
-        <v>41200</v>
+        <v>41500</v>
       </c>
       <c r="H26" s="3">
-        <v>16700</v>
+        <v>16900</v>
       </c>
       <c r="I26" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="J26" s="3">
-        <v>17200</v>
+        <v>17400</v>
       </c>
       <c r="K26" s="3">
         <v>28800</v>
@@ -1603,25 +1603,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-61900</v>
+        <v>-62400</v>
       </c>
       <c r="E27" s="3">
-        <v>-35700</v>
+        <v>-36000</v>
       </c>
       <c r="F27" s="3">
-        <v>-75800</v>
+        <v>-76400</v>
       </c>
       <c r="G27" s="3">
-        <v>39700</v>
+        <v>40000</v>
       </c>
       <c r="H27" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="I27" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="J27" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="K27" s="3">
         <v>28500</v>
@@ -1862,7 +1862,7 @@
         <v>-3800</v>
       </c>
       <c r="G32" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="H32" s="3">
         <v>-5100</v>
@@ -1871,7 +1871,7 @@
         <v>-3500</v>
       </c>
       <c r="J32" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="K32" s="3">
         <v>-8700</v>
@@ -1903,25 +1903,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-61900</v>
+        <v>-62400</v>
       </c>
       <c r="E33" s="3">
-        <v>-35700</v>
+        <v>-36000</v>
       </c>
       <c r="F33" s="3">
-        <v>-75800</v>
+        <v>-76400</v>
       </c>
       <c r="G33" s="3">
-        <v>39700</v>
+        <v>40000</v>
       </c>
       <c r="H33" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="I33" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="J33" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="K33" s="3">
         <v>28500</v>
@@ -2003,25 +2003,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-61900</v>
+        <v>-62400</v>
       </c>
       <c r="E35" s="3">
-        <v>-35700</v>
+        <v>-36000</v>
       </c>
       <c r="F35" s="3">
-        <v>-75800</v>
+        <v>-76400</v>
       </c>
       <c r="G35" s="3">
-        <v>39700</v>
+        <v>40000</v>
       </c>
       <c r="H35" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="I35" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="J35" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="K35" s="3">
         <v>28500</v>
@@ -2148,25 +2148,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52200</v>
+        <v>52600</v>
       </c>
       <c r="E41" s="3">
-        <v>64100</v>
+        <v>64600</v>
       </c>
       <c r="F41" s="3">
-        <v>148000</v>
+        <v>149200</v>
       </c>
       <c r="G41" s="3">
-        <v>168400</v>
+        <v>169700</v>
       </c>
       <c r="H41" s="3">
-        <v>135100</v>
+        <v>136100</v>
       </c>
       <c r="I41" s="3">
-        <v>230500</v>
+        <v>232300</v>
       </c>
       <c r="J41" s="3">
-        <v>272700</v>
+        <v>274800</v>
       </c>
       <c r="K41" s="3">
         <v>262300</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>52600</v>
+        <v>53000</v>
       </c>
       <c r="I42" s="3">
-        <v>34900</v>
+        <v>35200</v>
       </c>
       <c r="J42" s="3">
         <v>600</v>
@@ -2248,25 +2248,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>188500</v>
+        <v>189900</v>
       </c>
       <c r="E43" s="3">
-        <v>117000</v>
+        <v>117900</v>
       </c>
       <c r="F43" s="3">
-        <v>180300</v>
+        <v>181700</v>
       </c>
       <c r="G43" s="3">
-        <v>247100</v>
+        <v>249000</v>
       </c>
       <c r="H43" s="3">
-        <v>400100</v>
+        <v>403200</v>
       </c>
       <c r="I43" s="3">
-        <v>331400</v>
+        <v>334000</v>
       </c>
       <c r="J43" s="3">
-        <v>248800</v>
+        <v>250700</v>
       </c>
       <c r="K43" s="3">
         <v>266900</v>
@@ -2348,25 +2348,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81200</v>
+        <v>81800</v>
       </c>
       <c r="E45" s="3">
-        <v>161600</v>
+        <v>162800</v>
       </c>
       <c r="F45" s="3">
-        <v>165200</v>
+        <v>166400</v>
       </c>
       <c r="G45" s="3">
-        <v>242000</v>
+        <v>243900</v>
       </c>
       <c r="H45" s="3">
-        <v>214300</v>
+        <v>215900</v>
       </c>
       <c r="I45" s="3">
-        <v>207000</v>
+        <v>208600</v>
       </c>
       <c r="J45" s="3">
-        <v>328000</v>
+        <v>330500</v>
       </c>
       <c r="K45" s="3">
         <v>261600</v>
@@ -2398,25 +2398,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>321800</v>
+        <v>324300</v>
       </c>
       <c r="E46" s="3">
-        <v>342700</v>
+        <v>345400</v>
       </c>
       <c r="F46" s="3">
-        <v>493500</v>
+        <v>497300</v>
       </c>
       <c r="G46" s="3">
-        <v>657500</v>
+        <v>662500</v>
       </c>
       <c r="H46" s="3">
-        <v>802100</v>
+        <v>808200</v>
       </c>
       <c r="I46" s="3">
-        <v>803900</v>
+        <v>810000</v>
       </c>
       <c r="J46" s="3">
-        <v>850200</v>
+        <v>856700</v>
       </c>
       <c r="K46" s="3">
         <v>799800</v>
@@ -2457,16 +2457,16 @@
         <v>3000</v>
       </c>
       <c r="G47" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="H47" s="3">
-        <v>89100</v>
+        <v>89800</v>
       </c>
       <c r="I47" s="3">
-        <v>122400</v>
+        <v>123300</v>
       </c>
       <c r="J47" s="3">
-        <v>68100</v>
+        <v>68600</v>
       </c>
       <c r="K47" s="3">
         <v>76000</v>
@@ -2498,25 +2498,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E48" s="3">
         <v>5900</v>
       </c>
       <c r="F48" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G48" s="3">
         <v>9400</v>
       </c>
       <c r="H48" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="I48" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="J48" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="K48" s="3">
         <v>15300</v>
@@ -2701,22 +2701,22 @@
         <v>1600</v>
       </c>
       <c r="E52" s="3">
-        <v>66100</v>
+        <v>66600</v>
       </c>
       <c r="F52" s="3">
-        <v>96800</v>
+        <v>97500</v>
       </c>
       <c r="G52" s="3">
-        <v>109400</v>
+        <v>110200</v>
       </c>
       <c r="H52" s="3">
-        <v>67300</v>
+        <v>67800</v>
       </c>
       <c r="I52" s="3">
-        <v>55000</v>
+        <v>55400</v>
       </c>
       <c r="J52" s="3">
-        <v>55900</v>
+        <v>56300</v>
       </c>
       <c r="K52" s="3">
         <v>35700</v>
@@ -2798,25 +2798,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>330700</v>
+        <v>333200</v>
       </c>
       <c r="E54" s="3">
-        <v>416900</v>
+        <v>420100</v>
       </c>
       <c r="F54" s="3">
-        <v>601700</v>
+        <v>606300</v>
       </c>
       <c r="G54" s="3">
-        <v>787000</v>
+        <v>793100</v>
       </c>
       <c r="H54" s="3">
-        <v>971000</v>
+        <v>978400</v>
       </c>
       <c r="I54" s="3">
-        <v>994900</v>
+        <v>1002500</v>
       </c>
       <c r="J54" s="3">
-        <v>988900</v>
+        <v>996500</v>
       </c>
       <c r="K54" s="3">
         <v>927700</v>
@@ -2941,22 +2941,22 @@
         <v>1800</v>
       </c>
       <c r="E58" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F58" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="G58" s="3">
-        <v>45200</v>
+        <v>45600</v>
       </c>
       <c r="H58" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="I58" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="J58" s="3">
-        <v>157400</v>
+        <v>158600</v>
       </c>
       <c r="K58" s="3">
         <v>203000</v>
@@ -2988,25 +2988,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>144200</v>
+        <v>145300</v>
       </c>
       <c r="E59" s="3">
-        <v>161400</v>
+        <v>162700</v>
       </c>
       <c r="F59" s="3">
-        <v>281600</v>
+        <v>283800</v>
       </c>
       <c r="G59" s="3">
-        <v>346100</v>
+        <v>348700</v>
       </c>
       <c r="H59" s="3">
-        <v>278200</v>
+        <v>280400</v>
       </c>
       <c r="I59" s="3">
-        <v>278900</v>
+        <v>281100</v>
       </c>
       <c r="J59" s="3">
-        <v>409900</v>
+        <v>413100</v>
       </c>
       <c r="K59" s="3">
         <v>370400</v>
@@ -3038,25 +3038,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>146000</v>
+        <v>147200</v>
       </c>
       <c r="E60" s="3">
-        <v>168200</v>
+        <v>169500</v>
       </c>
       <c r="F60" s="3">
-        <v>304900</v>
+        <v>307200</v>
       </c>
       <c r="G60" s="3">
-        <v>391300</v>
+        <v>394300</v>
       </c>
       <c r="H60" s="3">
-        <v>349700</v>
+        <v>352400</v>
       </c>
       <c r="I60" s="3">
-        <v>357900</v>
+        <v>360700</v>
       </c>
       <c r="J60" s="3">
-        <v>567300</v>
+        <v>571700</v>
       </c>
       <c r="K60" s="3">
         <v>573400</v>
@@ -3100,13 +3100,13 @@
         <v>8100</v>
       </c>
       <c r="H61" s="3">
-        <v>34900</v>
+        <v>35200</v>
       </c>
       <c r="I61" s="3">
-        <v>66700</v>
+        <v>67200</v>
       </c>
       <c r="J61" s="3">
-        <v>70500</v>
+        <v>71000</v>
       </c>
       <c r="K61" s="3">
         <v>79400</v>
@@ -3144,16 +3144,16 @@
         <v>3000</v>
       </c>
       <c r="F62" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="G62" s="3">
-        <v>31000</v>
+        <v>31300</v>
       </c>
       <c r="H62" s="3">
-        <v>43000</v>
+        <v>43400</v>
       </c>
       <c r="I62" s="3">
-        <v>47100</v>
+        <v>47400</v>
       </c>
       <c r="J62" s="3">
         <v>4000</v>
@@ -3338,25 +3338,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>146700</v>
+        <v>147800</v>
       </c>
       <c r="E66" s="3">
-        <v>171900</v>
+        <v>173200</v>
       </c>
       <c r="F66" s="3">
-        <v>322500</v>
+        <v>325000</v>
       </c>
       <c r="G66" s="3">
-        <v>431400</v>
+        <v>434700</v>
       </c>
       <c r="H66" s="3">
-        <v>428500</v>
+        <v>431800</v>
       </c>
       <c r="I66" s="3">
-        <v>473000</v>
+        <v>476700</v>
       </c>
       <c r="J66" s="3">
-        <v>643100</v>
+        <v>648000</v>
       </c>
       <c r="K66" s="3">
         <v>668000</v>
@@ -3608,25 +3608,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="E72" s="3">
-        <v>51000</v>
+        <v>51400</v>
       </c>
       <c r="F72" s="3">
-        <v>86700</v>
+        <v>87400</v>
       </c>
       <c r="G72" s="3">
-        <v>162600</v>
+        <v>163800</v>
       </c>
       <c r="H72" s="3">
-        <v>352000</v>
+        <v>354700</v>
       </c>
       <c r="I72" s="3">
-        <v>335800</v>
+        <v>338400</v>
       </c>
       <c r="J72" s="3">
-        <v>162900</v>
+        <v>164100</v>
       </c>
       <c r="K72" s="3">
         <v>143500</v>
@@ -3808,25 +3808,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>184000</v>
+        <v>185400</v>
       </c>
       <c r="E76" s="3">
-        <v>245000</v>
+        <v>246900</v>
       </c>
       <c r="F76" s="3">
-        <v>279200</v>
+        <v>281300</v>
       </c>
       <c r="G76" s="3">
-        <v>355600</v>
+        <v>358400</v>
       </c>
       <c r="H76" s="3">
-        <v>542500</v>
+        <v>546600</v>
       </c>
       <c r="I76" s="3">
-        <v>521900</v>
+        <v>525900</v>
       </c>
       <c r="J76" s="3">
-        <v>345800</v>
+        <v>348400</v>
       </c>
       <c r="K76" s="3">
         <v>218300</v>
@@ -3963,25 +3963,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-61900</v>
+        <v>-62400</v>
       </c>
       <c r="E81" s="3">
-        <v>-35700</v>
+        <v>-36000</v>
       </c>
       <c r="F81" s="3">
-        <v>-75800</v>
+        <v>-76400</v>
       </c>
       <c r="G81" s="3">
-        <v>39700</v>
+        <v>40000</v>
       </c>
       <c r="H81" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="I81" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="J81" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="K81" s="3">
         <v>28500</v>

--- a/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>WEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>85300</v>
+        <v>25400</v>
       </c>
       <c r="E8" s="3">
-        <v>104800</v>
+        <v>79700</v>
       </c>
       <c r="F8" s="3">
-        <v>143900</v>
+        <v>97800</v>
       </c>
       <c r="G8" s="3">
-        <v>540100</v>
+        <v>134400</v>
       </c>
       <c r="H8" s="3">
-        <v>147900</v>
+        <v>110700</v>
       </c>
       <c r="I8" s="3">
-        <v>156000</v>
+        <v>115800</v>
       </c>
       <c r="J8" s="3">
+        <v>138200</v>
+      </c>
+      <c r="K8" s="3">
         <v>164100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>166100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>299900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>120100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>121900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>113200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>95900</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>32100</v>
+        <v>26600</v>
       </c>
       <c r="E9" s="3">
-        <v>57400</v>
+        <v>30000</v>
       </c>
       <c r="F9" s="3">
-        <v>69200</v>
+        <v>53600</v>
       </c>
       <c r="G9" s="3">
-        <v>227100</v>
+        <v>64700</v>
       </c>
       <c r="H9" s="3">
-        <v>55200</v>
+        <v>52700</v>
       </c>
       <c r="I9" s="3">
-        <v>65500</v>
+        <v>52400</v>
       </c>
       <c r="J9" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K9" s="3">
         <v>71700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>71600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>151300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>70800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>71400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>64900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>56900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>53200</v>
+        <v>-1200</v>
       </c>
       <c r="E10" s="3">
-        <v>47300</v>
+        <v>49700</v>
       </c>
       <c r="F10" s="3">
-        <v>74700</v>
+        <v>44200</v>
       </c>
       <c r="G10" s="3">
-        <v>313100</v>
+        <v>69700</v>
       </c>
       <c r="H10" s="3">
-        <v>92700</v>
+        <v>58000</v>
       </c>
       <c r="I10" s="3">
-        <v>90500</v>
+        <v>63400</v>
       </c>
       <c r="J10" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K10" s="3">
         <v>92400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>94500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>148700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>48300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="3">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G12" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4800</v>
+        <v>2500</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>6900</v>
+        <v>3800</v>
       </c>
       <c r="J12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,32 +1038,32 @@
         <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
       <c r="G14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1079,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>76300</v>
+        <v>143500</v>
       </c>
       <c r="E17" s="3">
-        <v>111100</v>
+        <v>71300</v>
       </c>
       <c r="F17" s="3">
-        <v>202000</v>
+        <v>103800</v>
       </c>
       <c r="G17" s="3">
-        <v>507300</v>
+        <v>188700</v>
       </c>
       <c r="H17" s="3">
-        <v>134100</v>
+        <v>132500</v>
       </c>
       <c r="I17" s="3">
-        <v>136300</v>
+        <v>94600</v>
       </c>
       <c r="J17" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K17" s="3">
         <v>157500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>133800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>240500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>94200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>94200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>83200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>74200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9000</v>
+        <v>-118100</v>
       </c>
       <c r="E18" s="3">
-        <v>-6400</v>
+        <v>8400</v>
       </c>
       <c r="F18" s="3">
-        <v>-58100</v>
+        <v>-5900</v>
       </c>
       <c r="G18" s="3">
-        <v>32800</v>
+        <v>-54300</v>
       </c>
       <c r="H18" s="3">
-        <v>13800</v>
+        <v>-21800</v>
       </c>
       <c r="I18" s="3">
-        <v>19700</v>
+        <v>21200</v>
       </c>
       <c r="J18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,58 +1279,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-2100</v>
-      </c>
       <c r="F20" s="3">
-        <v>3800</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3">
-        <v>25300</v>
+        <v>3600</v>
       </c>
       <c r="H20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I20" s="3">
         <v>5100</v>
       </c>
-      <c r="I20" s="3">
-        <v>3500</v>
-      </c>
       <c r="J20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K20" s="3">
         <v>7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1320,35 +1356,38 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>20700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>64200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>14300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>32800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8800</v>
+        <v>-117300</v>
       </c>
       <c r="E23" s="3">
-        <v>-8500</v>
+        <v>8200</v>
       </c>
       <c r="F23" s="3">
-        <v>-54300</v>
+        <v>-7900</v>
       </c>
       <c r="G23" s="3">
-        <v>58100</v>
+        <v>-50700</v>
       </c>
       <c r="H23" s="3">
-        <v>19000</v>
+        <v>-11400</v>
       </c>
       <c r="I23" s="3">
-        <v>23200</v>
+        <v>26300</v>
       </c>
       <c r="J23" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K23" s="3">
         <v>14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>41000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>62300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71500</v>
+        <v>-7200</v>
       </c>
       <c r="E24" s="3">
-        <v>27400</v>
+        <v>66800</v>
       </c>
       <c r="F24" s="3">
-        <v>22600</v>
+        <v>25600</v>
       </c>
       <c r="G24" s="3">
-        <v>16600</v>
+        <v>21100</v>
       </c>
       <c r="H24" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="I24" s="3">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="J24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6400</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,46 +1595,49 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-62700</v>
+        <v>-110100</v>
       </c>
       <c r="E26" s="3">
-        <v>-35800</v>
+        <v>-58500</v>
       </c>
       <c r="F26" s="3">
-        <v>-76900</v>
+        <v>-33500</v>
       </c>
       <c r="G26" s="3">
-        <v>41500</v>
+        <v>-71800</v>
       </c>
       <c r="H26" s="3">
-        <v>16900</v>
+        <v>-14400</v>
       </c>
       <c r="I26" s="3">
-        <v>17200</v>
+        <v>21400</v>
       </c>
       <c r="J26" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K26" s="3">
         <v>17400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1597,46 +1648,49 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-62400</v>
+        <v>-109800</v>
       </c>
       <c r="E27" s="3">
-        <v>-36000</v>
+        <v>-58300</v>
       </c>
       <c r="F27" s="3">
-        <v>-76400</v>
+        <v>-33600</v>
       </c>
       <c r="G27" s="3">
-        <v>40000</v>
+        <v>-71400</v>
       </c>
       <c r="H27" s="3">
-        <v>16300</v>
+        <v>-14600</v>
       </c>
       <c r="I27" s="3">
-        <v>16600</v>
+        <v>21200</v>
       </c>
       <c r="J27" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>65100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1647,8 +1701,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,96 +1913,102 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>2100</v>
-      </c>
       <c r="F32" s="3">
-        <v>-3800</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3">
-        <v>-25300</v>
+        <v>-3600</v>
       </c>
       <c r="H32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-5100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-3500</v>
-      </c>
       <c r="J32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-62400</v>
+        <v>-109800</v>
       </c>
       <c r="E33" s="3">
-        <v>-36000</v>
+        <v>-58300</v>
       </c>
       <c r="F33" s="3">
-        <v>-76400</v>
+        <v>-33600</v>
       </c>
       <c r="G33" s="3">
-        <v>40000</v>
+        <v>-71400</v>
       </c>
       <c r="H33" s="3">
-        <v>16300</v>
+        <v>-14600</v>
       </c>
       <c r="I33" s="3">
-        <v>16600</v>
+        <v>21200</v>
       </c>
       <c r="J33" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>65100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -1947,8 +2019,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,46 +2072,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-62400</v>
+        <v>-109800</v>
       </c>
       <c r="E35" s="3">
-        <v>-36000</v>
+        <v>-58300</v>
       </c>
       <c r="F35" s="3">
-        <v>-76400</v>
+        <v>-33600</v>
       </c>
       <c r="G35" s="3">
-        <v>40000</v>
+        <v>-71400</v>
       </c>
       <c r="H35" s="3">
-        <v>16300</v>
+        <v>-14600</v>
       </c>
       <c r="I35" s="3">
-        <v>16600</v>
+        <v>21200</v>
       </c>
       <c r="J35" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>65100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2047,63 +2125,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,41 +2227,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52600</v>
+        <v>34600</v>
       </c>
       <c r="E41" s="3">
-        <v>64600</v>
+        <v>49100</v>
       </c>
       <c r="F41" s="3">
-        <v>149200</v>
+        <v>60300</v>
       </c>
       <c r="G41" s="3">
-        <v>169700</v>
+        <v>139300</v>
       </c>
       <c r="H41" s="3">
-        <v>136100</v>
+        <v>158500</v>
       </c>
       <c r="I41" s="3">
-        <v>232300</v>
+        <v>179400</v>
       </c>
       <c r="J41" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K41" s="3">
         <v>274800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>262300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>277400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,13 +2278,16 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>23400</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -2206,27 +2295,27 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>35200</v>
+        <v>49600</v>
       </c>
       <c r="J42" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K42" s="3">
         <v>600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2242,41 +2331,44 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>189900</v>
+        <v>76300</v>
       </c>
       <c r="E43" s="3">
-        <v>117900</v>
+        <v>177400</v>
       </c>
       <c r="F43" s="3">
-        <v>181700</v>
+        <v>110100</v>
       </c>
       <c r="G43" s="3">
-        <v>249000</v>
+        <v>169700</v>
       </c>
       <c r="H43" s="3">
-        <v>403200</v>
+        <v>232500</v>
       </c>
       <c r="I43" s="3">
-        <v>334000</v>
+        <v>325800</v>
       </c>
       <c r="J43" s="3">
+        <v>376600</v>
+      </c>
+      <c r="K43" s="3">
         <v>250700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>266900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>315800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2342,41 +2437,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81800</v>
+        <v>31700</v>
       </c>
       <c r="E45" s="3">
-        <v>162800</v>
+        <v>76400</v>
       </c>
       <c r="F45" s="3">
-        <v>166400</v>
+        <v>152100</v>
       </c>
       <c r="G45" s="3">
-        <v>243900</v>
+        <v>155500</v>
       </c>
       <c r="H45" s="3">
-        <v>215900</v>
+        <v>227800</v>
       </c>
       <c r="I45" s="3">
-        <v>208600</v>
+        <v>213300</v>
       </c>
       <c r="J45" s="3">
+        <v>201700</v>
+      </c>
+      <c r="K45" s="3">
         <v>330500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>261600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>187800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,41 +2490,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>324300</v>
+        <v>166000</v>
       </c>
       <c r="E46" s="3">
-        <v>345400</v>
+        <v>302900</v>
       </c>
       <c r="F46" s="3">
-        <v>497300</v>
+        <v>322600</v>
       </c>
       <c r="G46" s="3">
-        <v>662500</v>
+        <v>464500</v>
       </c>
       <c r="H46" s="3">
-        <v>808200</v>
+        <v>618900</v>
       </c>
       <c r="I46" s="3">
-        <v>810000</v>
+        <v>768200</v>
       </c>
       <c r="J46" s="3">
+        <v>755000</v>
+      </c>
+      <c r="K46" s="3">
         <v>856700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>799800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>781500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2442,41 +2543,44 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="3">
-        <v>10000</v>
+        <v>2800</v>
       </c>
       <c r="H47" s="3">
-        <v>89800</v>
+        <v>9300</v>
       </c>
       <c r="I47" s="3">
-        <v>123300</v>
+        <v>72700</v>
       </c>
       <c r="J47" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K47" s="3">
         <v>68600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>76000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,41 +2596,44 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5200</v>
+        <v>7500</v>
       </c>
       <c r="E48" s="3">
-        <v>5900</v>
+        <v>4800</v>
       </c>
       <c r="F48" s="3">
-        <v>7600</v>
+        <v>5600</v>
       </c>
       <c r="G48" s="3">
-        <v>9400</v>
+        <v>7100</v>
       </c>
       <c r="H48" s="3">
-        <v>11700</v>
+        <v>8800</v>
       </c>
       <c r="I48" s="3">
-        <v>12900</v>
+        <v>9900</v>
       </c>
       <c r="J48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,19 +2649,22 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -2574,8 +2684,8 @@
       <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>900</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2592,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,41 +2808,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>66600</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
-        <v>97500</v>
+        <v>62300</v>
       </c>
       <c r="G52" s="3">
-        <v>110200</v>
+        <v>91100</v>
       </c>
       <c r="H52" s="3">
-        <v>67800</v>
+        <v>102900</v>
       </c>
       <c r="I52" s="3">
-        <v>55400</v>
+        <v>67700</v>
       </c>
       <c r="J52" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K52" s="3">
         <v>56300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2742,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,41 +2914,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>333200</v>
+        <v>176800</v>
       </c>
       <c r="E54" s="3">
-        <v>420100</v>
+        <v>311200</v>
       </c>
       <c r="F54" s="3">
-        <v>606300</v>
+        <v>392400</v>
       </c>
       <c r="G54" s="3">
-        <v>793100</v>
+        <v>566300</v>
       </c>
       <c r="H54" s="3">
-        <v>978400</v>
+        <v>740800</v>
       </c>
       <c r="I54" s="3">
-        <v>1002500</v>
+        <v>919400</v>
       </c>
       <c r="J54" s="3">
+        <v>913900</v>
+      </c>
+      <c r="K54" s="3">
         <v>996500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>927700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>904400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2932,41 +3062,44 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
-        <v>6900</v>
+        <v>1700</v>
       </c>
       <c r="F58" s="3">
-        <v>23400</v>
+        <v>6400</v>
       </c>
       <c r="G58" s="3">
-        <v>45600</v>
+        <v>21900</v>
       </c>
       <c r="H58" s="3">
-        <v>72100</v>
+        <v>42600</v>
       </c>
       <c r="I58" s="3">
-        <v>79600</v>
+        <v>52000</v>
       </c>
       <c r="J58" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K58" s="3">
         <v>158600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>203000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>234500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,41 +3115,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>145300</v>
+        <v>109200</v>
       </c>
       <c r="E59" s="3">
-        <v>162700</v>
+        <v>135700</v>
       </c>
       <c r="F59" s="3">
-        <v>283800</v>
+        <v>151900</v>
       </c>
       <c r="G59" s="3">
-        <v>348700</v>
+        <v>265100</v>
       </c>
       <c r="H59" s="3">
-        <v>280400</v>
+        <v>325700</v>
       </c>
       <c r="I59" s="3">
-        <v>281100</v>
+        <v>280100</v>
       </c>
       <c r="J59" s="3">
+        <v>261900</v>
+      </c>
+      <c r="K59" s="3">
         <v>413100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>370400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>349500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,41 +3168,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>147200</v>
+        <v>110100</v>
       </c>
       <c r="E60" s="3">
-        <v>169500</v>
+        <v>137500</v>
       </c>
       <c r="F60" s="3">
-        <v>307200</v>
+        <v>158300</v>
       </c>
       <c r="G60" s="3">
-        <v>394300</v>
+        <v>287000</v>
       </c>
       <c r="H60" s="3">
-        <v>352400</v>
+        <v>368300</v>
       </c>
       <c r="I60" s="3">
-        <v>360700</v>
+        <v>332000</v>
       </c>
       <c r="J60" s="3">
+        <v>329200</v>
+      </c>
+      <c r="K60" s="3">
         <v>571700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>573400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>584000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3082,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3094,29 +3236,29 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>8100</v>
+        <v>800</v>
       </c>
       <c r="H61" s="3">
-        <v>35200</v>
+        <v>7600</v>
       </c>
       <c r="I61" s="3">
-        <v>67200</v>
+        <v>17400</v>
       </c>
       <c r="J61" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K61" s="3">
         <v>71000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>79400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3132,41 +3274,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
-        <v>3000</v>
-      </c>
       <c r="F62" s="3">
-        <v>16400</v>
+        <v>2800</v>
       </c>
       <c r="G62" s="3">
-        <v>31300</v>
+        <v>15300</v>
       </c>
       <c r="H62" s="3">
-        <v>43400</v>
+        <v>29200</v>
       </c>
       <c r="I62" s="3">
-        <v>47400</v>
+        <v>35800</v>
       </c>
       <c r="J62" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3182,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,41 +3486,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>147800</v>
+        <v>112700</v>
       </c>
       <c r="E66" s="3">
-        <v>173200</v>
+        <v>138100</v>
       </c>
       <c r="F66" s="3">
-        <v>325000</v>
+        <v>161800</v>
       </c>
       <c r="G66" s="3">
-        <v>434700</v>
+        <v>303600</v>
       </c>
       <c r="H66" s="3">
-        <v>431800</v>
+        <v>406000</v>
       </c>
       <c r="I66" s="3">
-        <v>476700</v>
+        <v>386100</v>
       </c>
       <c r="J66" s="3">
+        <v>403300</v>
+      </c>
+      <c r="K66" s="3">
         <v>648000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>668000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>676000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,14 +3696,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>41400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>40900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3552,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,41 +3772,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11000</v>
+        <v>-120100</v>
       </c>
       <c r="E72" s="3">
-        <v>51400</v>
+        <v>-10300</v>
       </c>
       <c r="F72" s="3">
-        <v>87400</v>
+        <v>48000</v>
       </c>
       <c r="G72" s="3">
-        <v>163800</v>
+        <v>81600</v>
       </c>
       <c r="H72" s="3">
-        <v>354700</v>
+        <v>153000</v>
       </c>
       <c r="I72" s="3">
-        <v>338400</v>
+        <v>352600</v>
       </c>
       <c r="J72" s="3">
+        <v>331300</v>
+      </c>
+      <c r="K72" s="3">
         <v>164100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>143500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>113600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,41 +3984,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>185400</v>
+        <v>64100</v>
       </c>
       <c r="E76" s="3">
-        <v>246900</v>
+        <v>173200</v>
       </c>
       <c r="F76" s="3">
-        <v>281300</v>
+        <v>230600</v>
       </c>
       <c r="G76" s="3">
-        <v>358400</v>
+        <v>262800</v>
       </c>
       <c r="H76" s="3">
-        <v>546600</v>
+        <v>334700</v>
       </c>
       <c r="I76" s="3">
-        <v>525900</v>
+        <v>533300</v>
       </c>
       <c r="J76" s="3">
+        <v>510600</v>
+      </c>
+      <c r="K76" s="3">
         <v>348400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>218300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>187500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3852,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,101 +4090,107 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-62400</v>
+        <v>-109800</v>
       </c>
       <c r="E81" s="3">
-        <v>-36000</v>
+        <v>-58300</v>
       </c>
       <c r="F81" s="3">
-        <v>-76400</v>
+        <v>-33600</v>
       </c>
       <c r="G81" s="3">
-        <v>40000</v>
+        <v>-71400</v>
       </c>
       <c r="H81" s="3">
-        <v>16300</v>
+        <v>-14600</v>
       </c>
       <c r="I81" s="3">
-        <v>16600</v>
+        <v>21200</v>
       </c>
       <c r="J81" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>65100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -4007,8 +4201,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4077,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4377,8 +4593,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4447,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4597,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4867,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4917,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4965,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>
